--- a/input/data0.xlsx
+++ b/input/data0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgarl\Documents\EMMA-internal\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornelis\Documents\Hertie\EMMA\Programm\EMMA-internal\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C317ED-7CBB-46AE-9579-BA4B280C114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398E724-AB2E-49A7-A952-B34508A4CB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" tabRatio="829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capa0" sheetId="46" r:id="rId1"/>
@@ -863,14 +863,16 @@
     <t>batr</t>
   </si>
   <si>
+    <t>TEMPORARY (assumed same as 2030)</t>
+  </si>
+  <si>
     <t>INFOBOX
+- for Greece 2030,40,50: https://www.prlogos.gr/wp-content/uploads/2021/08/meleti.pdf 
+- for Greece PHS 2030,2040,2050: https://tyndp.entsoe.eu/tyndp2018/projects/storage_projects/1006; https://lirias.kuleuven.be/retrieve/334365
 - Different vintages from OPSD power plant list
 - Scaled to ENTSO-E Power Statistics, national generation capacity
 - Hydr in BEL and POL is neglected
 - vintages: 1 = new, 3 = old</t>
-  </si>
-  <si>
-    <t>TEMPORARY (assumed same as 2030)</t>
   </si>
 </sst>
 </file>
@@ -878,9 +880,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -2364,7 +2366,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2498,8 +2500,8 @@
     <xf numFmtId="0" fontId="35" fillId="32" borderId="0" xfId="66" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="0" xfId="66" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2515,13 +2517,13 @@
     <xf numFmtId="0" fontId="27" fillId="33" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="33" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="31" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2545,39 +2547,39 @@
     <xf numFmtId="1" fontId="27" fillId="28" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="35" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="35" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="27" fillId="28" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="36" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="36" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="37" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2664,15 +2666,15 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="33" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="35" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="35" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2742,7 +2744,7 @@
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="27" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2786,13 +2788,13 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2809,22 +2811,22 @@
     <xf numFmtId="0" fontId="27" fillId="33" borderId="50" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="49" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="48" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="33" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="33" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="42" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2900,7 +2902,7 @@
     <xf numFmtId="1" fontId="27" fillId="38" borderId="31" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="33" borderId="30" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="38" borderId="35" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="32" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="32" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="27" fillId="33" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3014,43 +3016,43 @@
     <xf numFmtId="1" fontId="27" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="38" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="35" borderId="38" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="35" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="35" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="35" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="47" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="47" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="47" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="48" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="48" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="48" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="41" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="47" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="47" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="47" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="48" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="48" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="48" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="41" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="35" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="35" borderId="38" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="33" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="36" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="34" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="35" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="37" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="35" borderId="38" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="33" borderId="31" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="33" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="37" fillId="41" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="33" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3097,22 +3099,22 @@
     <xf numFmtId="0" fontId="27" fillId="32" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="32" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="32" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="28" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3211,21 +3213,6 @@
     <xf numFmtId="0" fontId="27" fillId="38" borderId="34" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3274,13 +3261,10 @@
     <xf numFmtId="0" fontId="6" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3289,8 +3273,26 @@
     <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -3336,55 +3338,35 @@
     <cellStyle name="Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Ausgabe" xfId="53" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="54" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Berechnung" xfId="44" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Bold GHG Numbers (0.00)" xfId="43" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Calculation" xfId="44" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="65" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Eingabe" xfId="48" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="57" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="46" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Explanatory Text" xfId="46" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Heading 1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Heading 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Heading 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
     <cellStyle name="Heading 4" xfId="62" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8"/>
-    <cellStyle name="Input" xfId="48" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="66" builtinId="8"/>
     <cellStyle name="Linked Cell" xfId="63" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Neutral" xfId="49" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Normalny_PL_AssumptionLPP2010_hz17.03" xfId="51" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Note" xfId="52" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Output" xfId="53" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="68" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="68" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="Standard 3" xfId="67" xr:uid="{0FD9B4DD-147A-4972-B413-36A039DD7FC1}"/>
     <cellStyle name="Standard_data" xfId="56" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="Title" xfId="58" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Total" xfId="57" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="64" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="64" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="201">
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -4595,6 +4577,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4704,7 +4706,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5733,7 +5735,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6216,7 +6218,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6641,7 +6643,7 @@
                   <c:v>28.864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2869999999999999</c:v>
+                  <c:v>8.2569999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>11.133999999999999</c:v>
@@ -6766,7 +6768,7 @@
                   <c:v>3.7930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.399</c:v>
+                  <c:v>4.2683</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.7999999999999999E-2</c:v>
@@ -6891,7 +6893,7 @@
                   <c:v>14.013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5299999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.5630000000000006</c:v>
@@ -7016,7 +7018,7 @@
                   <c:v>2.0219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2430000000000001</c:v>
@@ -7245,7 +7247,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7670,7 +7672,7 @@
                   <c:v>21.388999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7949999999999999</c:v>
+                  <c:v>6.6824200000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.9139999999999997</c:v>
@@ -7795,7 +7797,7 @@
                   <c:v>3.7930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.399</c:v>
+                  <c:v>4.8582999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.7999999999999999E-2</c:v>
@@ -7920,7 +7922,7 @@
                   <c:v>14.013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5299999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.5630000000000006</c:v>
@@ -8045,7 +8047,7 @@
                   <c:v>2.0219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2430000000000001</c:v>
@@ -8274,7 +8276,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8872,7 +8874,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9297,7 +9299,7 @@
                   <c:v>21.388999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7949999999999999</c:v>
+                  <c:v>6.6824200000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.9139999999999997</c:v>
@@ -9422,7 +9424,7 @@
                   <c:v>3.7930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.399</c:v>
+                  <c:v>4.8582999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.7999999999999999E-2</c:v>
@@ -9547,7 +9549,7 @@
                   <c:v>14.013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5299999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.5630000000000006</c:v>
@@ -9672,7 +9674,7 @@
                   <c:v>2.0219999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2430000000000001</c:v>
@@ -13406,12 +13408,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13737,36 +13735,36 @@
   <dimension ref="A1:CP41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BK4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CK30" sqref="CK30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="5.84375" style="74" customWidth="1"/>
-    <col min="3" max="10" width="7.69140625" style="74" customWidth="1"/>
-    <col min="11" max="12" width="6.15234375" style="74" customWidth="1"/>
-    <col min="13" max="13" width="6.3828125" style="74" customWidth="1"/>
-    <col min="14" max="25" width="6.15234375" style="74" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="74" customWidth="1"/>
+    <col min="3" max="10" width="7.7265625" style="74" customWidth="1"/>
+    <col min="11" max="12" width="6.1796875" style="74" customWidth="1"/>
+    <col min="13" max="13" width="6.36328125" style="74" customWidth="1"/>
+    <col min="14" max="25" width="6.1796875" style="74" customWidth="1"/>
     <col min="26" max="26" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="27" max="38" width="6.15234375" style="74" customWidth="1"/>
+    <col min="27" max="38" width="6.1796875" style="74" customWidth="1"/>
     <col min="39" max="39" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="40" max="51" width="6.15234375" style="74" customWidth="1"/>
+    <col min="40" max="51" width="6.1796875" style="74" customWidth="1"/>
     <col min="52" max="52" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="6.15234375" style="74" customWidth="1"/>
-    <col min="55" max="64" width="5.84375" style="74" customWidth="1"/>
-    <col min="65" max="65" width="7.15234375" style="74" customWidth="1"/>
-    <col min="66" max="67" width="5.84375" style="74" customWidth="1"/>
-    <col min="68" max="81" width="5.3828125" style="74" customWidth="1"/>
-    <col min="82" max="82" width="6.3828125" style="74" customWidth="1"/>
-    <col min="83" max="133" width="5.3828125" style="74" customWidth="1"/>
-    <col min="134" max="16384" width="11.3828125" style="74"/>
+    <col min="53" max="54" width="6.1796875" style="74" customWidth="1"/>
+    <col min="55" max="64" width="5.81640625" style="74" customWidth="1"/>
+    <col min="65" max="65" width="7.1796875" style="74" customWidth="1"/>
+    <col min="66" max="67" width="5.81640625" style="74" customWidth="1"/>
+    <col min="68" max="81" width="5.36328125" style="74" customWidth="1"/>
+    <col min="82" max="82" width="6.36328125" style="74" customWidth="1"/>
+    <col min="83" max="133" width="5.36328125" style="74" customWidth="1"/>
+    <col min="134" max="16384" width="11.36328125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
@@ -13866,7 +13864,7 @@
       <c r="CC1" s="141"/>
       <c r="CD1" s="100"/>
     </row>
-    <row r="2" spans="1:94" s="209" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:94" s="209" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="203"/>
       <c r="B2" s="204"/>
       <c r="C2" s="203">
@@ -14108,7 +14106,7 @@
       </c>
       <c r="CD2" s="208"/>
     </row>
-    <row r="3" spans="1:94" s="216" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" s="216" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="210"/>
       <c r="B3" s="211"/>
       <c r="C3" s="210" t="s">
@@ -14352,7 +14350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="92" t="s">
         <v>36</v>
       </c>
@@ -14572,7 +14570,7 @@
       </c>
       <c r="CD4" s="105"/>
       <c r="CF4" s="423" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CG4" s="424"/>
       <c r="CH4" s="424"/>
@@ -14585,7 +14583,7 @@
       <c r="CO4" s="424"/>
       <c r="CP4" s="425"/>
     </row>
-    <row r="5" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="92" t="s">
         <v>37</v>
       </c>
@@ -14817,7 +14815,7 @@
       <c r="CO5" s="427"/>
       <c r="CP5" s="428"/>
     </row>
-    <row r="6" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>37</v>
       </c>
@@ -15021,7 +15019,7 @@
       <c r="CO6" s="427"/>
       <c r="CP6" s="428"/>
     </row>
-    <row r="7" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="75" t="s">
         <v>37</v>
       </c>
@@ -15224,7 +15222,7 @@
       <c r="CO7" s="427"/>
       <c r="CP7" s="428"/>
     </row>
-    <row r="8" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="92" t="s">
         <v>38</v>
       </c>
@@ -15455,7 +15453,7 @@
       <c r="CO8" s="427"/>
       <c r="CP8" s="428"/>
     </row>
-    <row r="9" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
         <v>38</v>
       </c>
@@ -15658,7 +15656,7 @@
       <c r="CO9" s="427"/>
       <c r="CP9" s="428"/>
     </row>
-    <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="77" t="s">
         <v>38</v>
       </c>
@@ -15861,7 +15859,7 @@
       <c r="CO10" s="427"/>
       <c r="CP10" s="428"/>
     </row>
-    <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>39</v>
       </c>
@@ -15932,7 +15930,7 @@
         <v>13.912000000000001</v>
       </c>
       <c r="X11" s="198">
-        <v>1.8109999999999999</v>
+        <v>7.5590200000000003</v>
       </c>
       <c r="Y11" s="198">
         <v>4.4770000000000003</v>
@@ -15971,7 +15969,7 @@
         <v>13.912000000000001</v>
       </c>
       <c r="AK11" s="404">
-        <v>1.8109999999999999</v>
+        <v>6.6824200000000005</v>
       </c>
       <c r="AL11" s="404">
         <v>4.4770000000000003</v>
@@ -16010,7 +16008,7 @@
         <v>13.912000000000001</v>
       </c>
       <c r="AX11" s="198">
-        <v>1.8109999999999999</v>
+        <v>6.6824200000000005</v>
       </c>
       <c r="AY11" s="198">
         <v>4.4770000000000003</v>
@@ -16092,7 +16090,7 @@
       <c r="CO11" s="427"/>
       <c r="CP11" s="428"/>
     </row>
-    <row r="12" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="75" t="s">
         <v>39</v>
       </c>
@@ -16163,7 +16161,7 @@
         <v>14.388999999999999</v>
       </c>
       <c r="X12" s="198">
-        <v>0.49199999999999999</v>
+        <v>0.55020000000000002</v>
       </c>
       <c r="Y12" s="198">
         <v>2.2189999999999999</v>
@@ -16202,7 +16200,7 @@
         <v>7.1950000000000003</v>
       </c>
       <c r="AK12" s="404">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="404">
         <v>1.109</v>
@@ -16295,7 +16293,7 @@
       <c r="CO12" s="427"/>
       <c r="CP12" s="428"/>
     </row>
-    <row r="13" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="77" t="s">
         <v>39</v>
       </c>
@@ -16498,7 +16496,7 @@
       <c r="CO13" s="427"/>
       <c r="CP13" s="428"/>
     </row>
-    <row r="14" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="75" t="s">
         <v>35</v>
       </c>
@@ -16569,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="198">
-        <v>0.49199999999999999</v>
+        <v>0.14777999999999999</v>
       </c>
       <c r="Y14" s="198">
         <v>2.2189999999999999</v>
@@ -16608,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="404">
-        <v>0.49199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="404">
         <v>2.2189999999999999</v>
@@ -16647,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="198">
-        <v>0.49199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="198">
         <v>2.2189999999999999</v>
@@ -16711,7 +16709,7 @@
       <c r="CO14" s="427"/>
       <c r="CP14" s="428"/>
     </row>
-    <row r="15" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>35</v>
       </c>
@@ -16782,7 +16780,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="X15" s="198">
-        <v>0.49199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="198">
         <v>2.2189999999999999</v>
@@ -16821,7 +16819,7 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="AK15" s="404">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="404">
         <v>1.109</v>
@@ -16914,7 +16912,7 @@
       <c r="CO15" s="427"/>
       <c r="CP15" s="428"/>
     </row>
-    <row r="16" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>35</v>
       </c>
@@ -17117,7 +17115,7 @@
       <c r="CO16" s="427"/>
       <c r="CP16" s="428"/>
     </row>
-    <row r="17" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="92" t="s">
         <v>46</v>
       </c>
@@ -17188,7 +17186,7 @@
         <v>2.83</v>
       </c>
       <c r="X17" s="195">
-        <v>3.169</v>
+        <v>2.6753</v>
       </c>
       <c r="Y17" s="195">
         <v>0</v>
@@ -17227,7 +17225,7 @@
         <v>2.83</v>
       </c>
       <c r="AK17" s="407">
-        <v>3.169</v>
+        <v>3.2652999999999999</v>
       </c>
       <c r="AL17" s="407">
         <v>0</v>
@@ -17266,7 +17264,7 @@
         <v>2.83</v>
       </c>
       <c r="AX17" s="195">
-        <v>3.169</v>
+        <v>3.2652999999999999</v>
       </c>
       <c r="AY17" s="195">
         <v>0</v>
@@ -17387,7 +17385,7 @@
       <c r="CO17" s="427"/>
       <c r="CP17" s="428"/>
     </row>
-    <row r="18" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="75" t="s">
         <v>47</v>
       </c>
@@ -17458,7 +17456,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="X18" s="198">
-        <v>0.23</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="Y18" s="198">
         <v>3.7999999999999999E-2</v>
@@ -17497,7 +17495,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="AK18" s="404">
-        <v>0.23</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AL18" s="404">
         <v>3.7999999999999999E-2</v>
@@ -17536,7 +17534,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="AX18" s="198">
-        <v>0.23</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AY18" s="198">
         <v>3.7999999999999999E-2</v>
@@ -17657,7 +17655,7 @@
       <c r="CO18" s="427"/>
       <c r="CP18" s="428"/>
     </row>
-    <row r="19" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="77" t="s">
         <v>48</v>
       </c>
@@ -17728,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="201">
-        <v>0</v>
+        <v>1.524</v>
       </c>
       <c r="Y19" s="201">
         <v>0</v>
@@ -17767,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="410">
-        <v>0</v>
+        <v>1.524</v>
       </c>
       <c r="AL19" s="410">
         <v>0</v>
@@ -17806,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="201">
-        <v>0</v>
+        <v>1.524</v>
       </c>
       <c r="AY19" s="201">
         <v>0</v>
@@ -17888,7 +17886,7 @@
       <c r="CO19" s="427"/>
       <c r="CP19" s="428"/>
     </row>
-    <row r="20" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="75" t="s">
         <v>57</v>
       </c>
@@ -17959,7 +17957,7 @@
         <v>7.4039999999999999</v>
       </c>
       <c r="X20" s="198">
-        <v>2.0819999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="198">
         <v>3.669</v>
@@ -17998,7 +17996,7 @@
         <v>7.4039999999999999</v>
       </c>
       <c r="AK20" s="404">
-        <v>2.0819999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="404">
         <v>3.669</v>
@@ -18037,7 +18035,7 @@
         <v>7.4039999999999999</v>
       </c>
       <c r="AX20" s="198">
-        <v>2.0819999999999999</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="198">
         <v>3.669</v>
@@ -18093,7 +18091,7 @@
       <c r="CO20" s="427"/>
       <c r="CP20" s="428"/>
     </row>
-    <row r="21" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="75" t="s">
         <v>58</v>
       </c>
@@ -18298,7 +18296,7 @@
       <c r="CO21" s="430"/>
       <c r="CP21" s="431"/>
     </row>
-    <row r="22" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="75" t="s">
         <v>5</v>
       </c>
@@ -18369,7 +18367,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="198">
-        <v>2.448</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="201">
         <v>3.9369999999999998</v>
@@ -18408,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="404">
-        <v>2.448</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="410">
         <v>3.9369999999999998</v>
@@ -18447,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="198">
-        <v>2.448</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="201">
         <v>3.9369999999999998</v>
@@ -18518,7 +18516,7 @@
       </c>
       <c r="CD22" s="105"/>
     </row>
-    <row r="23" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="106" t="s">
         <v>50</v>
       </c>
@@ -18589,7 +18587,7 @@
         <v>2.0219999999999998</v>
       </c>
       <c r="X23" s="387">
-        <v>0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="387">
         <v>1.2430000000000001</v>
@@ -18628,7 +18626,7 @@
         <v>2.0219999999999998</v>
       </c>
       <c r="AK23" s="413">
-        <v>0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="413">
         <v>1.2430000000000001</v>
@@ -18667,7 +18665,7 @@
         <v>2.0219999999999998</v>
       </c>
       <c r="AX23" s="387">
-        <v>0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="387">
         <v>1.2430000000000001</v>
@@ -18777,7 +18775,7 @@
       </c>
       <c r="CD23" s="105"/>
     </row>
-    <row r="24" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="74" t="s">
         <v>158</v>
       </c>
@@ -18862,7 +18860,7 @@
       <c r="CB24" s="81"/>
       <c r="CC24" s="81"/>
     </row>
-    <row r="25" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="81"/>
       <c r="B25" s="81"/>
       <c r="C25" s="81"/>
@@ -18945,7 +18943,7 @@
       <c r="CB25" s="81"/>
       <c r="CC25" s="81"/>
     </row>
-    <row r="26" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
         <v>120</v>
       </c>
@@ -19034,7 +19032,7 @@
       <c r="CB26" s="81"/>
       <c r="CC26" s="81"/>
     </row>
-    <row r="27" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="203"/>
       <c r="B27" s="204"/>
       <c r="C27" s="203">
@@ -19247,7 +19245,7 @@
       <c r="CB27" s="81"/>
       <c r="CC27" s="81"/>
     </row>
-    <row r="28" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="210"/>
       <c r="B28" s="211"/>
       <c r="C28" s="210" t="s">
@@ -19460,7 +19458,7 @@
       <c r="CB28" s="81"/>
       <c r="CC28" s="81"/>
     </row>
-    <row r="29" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="421" t="s">
         <v>119</v>
       </c>
@@ -19725,7 +19723,7 @@
       <c r="CB29" s="81"/>
       <c r="CC29" s="81"/>
     </row>
-    <row r="30" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="421" t="s">
         <v>48</v>
       </c>
@@ -19800,8 +19798,8 @@
         <v>348.51879756726515</v>
       </c>
       <c r="X30" s="393">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f>4.97+3.974</f>
+        <v>8.9439999999999991</v>
       </c>
       <c r="Y30" s="393">
         <f t="shared" si="35"/>
@@ -19853,7 +19851,7 @@
       </c>
       <c r="AK30" s="393">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>8.9439999999999991</v>
       </c>
       <c r="AL30" s="393">
         <f t="shared" si="48"/>
@@ -19905,7 +19903,7 @@
       </c>
       <c r="AX30" s="393">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>8.9439999999999991</v>
       </c>
       <c r="AY30" s="393">
         <f t="shared" si="61"/>
@@ -19951,7 +19949,7 @@
       <c r="CB30" s="81"/>
       <c r="CC30" s="81"/>
     </row>
-    <row r="31" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="223"/>
       <c r="B31" s="223"/>
       <c r="C31" s="223"/>
@@ -20037,7 +20035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="223"/>
       <c r="B32" s="223"/>
       <c r="C32" s="223"/>
@@ -20121,7 +20119,7 @@
       <c r="CC32" s="81"/>
       <c r="CD32" s="76"/>
     </row>
-    <row r="33" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="223"/>
       <c r="B33" s="223"/>
       <c r="C33" s="223"/>
@@ -20226,7 +20224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="117" t="s">
         <v>36</v>
       </c>
@@ -20557,7 +20555,7 @@
         <v>0.49000000000000021</v>
       </c>
     </row>
-    <row r="35" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="121" t="s">
         <v>61</v>
       </c>
@@ -20888,7 +20886,7 @@
         <v>-9.9999999999997313E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="124" t="s">
         <v>22</v>
       </c>
@@ -20979,7 +20977,7 @@
       </c>
       <c r="X36" s="126">
         <f t="shared" ref="X36" si="99">SUM(X11:X16)</f>
-        <v>3.2869999999999999</v>
+        <v>8.2569999999999997</v>
       </c>
       <c r="Y36" s="126">
         <f t="shared" ref="Y36:AJ36" si="100">SUM(Y11:Y16)</f>
@@ -21031,7 +21029,7 @@
       </c>
       <c r="AK36" s="126">
         <f t="shared" ref="AK36" si="101">SUM(AK11:AK16)</f>
-        <v>2.7949999999999999</v>
+        <v>6.6824200000000005</v>
       </c>
       <c r="AL36" s="126">
         <f>SUM(AL11:AL16)</f>
@@ -21083,7 +21081,7 @@
       </c>
       <c r="AX36" s="126">
         <f t="shared" si="102"/>
-        <v>2.3029999999999999</v>
+        <v>6.6824200000000005</v>
       </c>
       <c r="AY36" s="126">
         <f>SUM(AY11:AY16)</f>
@@ -21219,7 +21217,7 @@
         <v>3.8250000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="74" t="s">
         <v>62</v>
       </c>
@@ -21309,7 +21307,7 @@
       </c>
       <c r="X37" s="116">
         <f t="shared" ref="X37" si="107">SUM(X17:X19)</f>
-        <v>3.399</v>
+        <v>4.2683</v>
       </c>
       <c r="Y37" s="116">
         <f t="shared" ref="Y37:AJ37" si="108">SUM(Y17:Y19)</f>
@@ -21361,7 +21359,7 @@
       </c>
       <c r="AK37" s="116">
         <f t="shared" ref="AK37" si="109">SUM(AK17:AK19)</f>
-        <v>3.399</v>
+        <v>4.8582999999999998</v>
       </c>
       <c r="AL37" s="116">
         <f>SUM(AL17:AL19)</f>
@@ -21413,7 +21411,7 @@
       </c>
       <c r="AX37" s="116">
         <f t="shared" si="110"/>
-        <v>3.399</v>
+        <v>4.8582999999999998</v>
       </c>
       <c r="AY37" s="116">
         <f>SUM(AY17:AY19)</f>
@@ -21549,7 +21547,7 @@
         <v>-0.11999999999999744</v>
       </c>
     </row>
-    <row r="38" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="117" t="s">
         <v>127</v>
       </c>
@@ -21640,7 +21638,7 @@
       </c>
       <c r="X38" s="119">
         <f t="shared" ref="X38" si="115">SUM(X20:X22)</f>
-        <v>4.5299999999999994</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="119">
         <f t="shared" ref="Y38:AJ38" si="116">SUM(Y20:Y22)</f>
@@ -21692,7 +21690,7 @@
       </c>
       <c r="AK38" s="119">
         <f t="shared" ref="AK38" si="117">SUM(AK20:AK22)</f>
-        <v>4.5299999999999994</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="119">
         <f>SUM(AL20:AL22)</f>
@@ -21744,7 +21742,7 @@
       </c>
       <c r="AX38" s="119">
         <f t="shared" si="118"/>
-        <v>4.5299999999999994</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="119">
         <f>SUM(AY20:AY22)</f>
@@ -21880,7 +21878,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="39" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="124" t="s">
         <v>50</v>
       </c>
@@ -21971,7 +21969,7 @@
       </c>
       <c r="X39" s="126">
         <f t="shared" ref="X39" si="123">X23</f>
-        <v>0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="126">
         <f t="shared" ref="Y39:AJ39" si="124">Y23</f>
@@ -22023,7 +22021,7 @@
       </c>
       <c r="AK39" s="126">
         <f t="shared" ref="AK39" si="125">AK23</f>
-        <v>0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="126">
         <f>AL23</f>
@@ -22075,7 +22073,7 @@
       </c>
       <c r="AX39" s="126">
         <f t="shared" si="126"/>
-        <v>0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="126">
         <f>AY23</f>
@@ -22211,7 +22209,7 @@
         <v>9.9999999999988987E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:93" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:93" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="101" t="s">
         <v>0</v>
       </c>
@@ -22302,7 +22300,7 @@
       </c>
       <c r="X40" s="102">
         <f t="shared" ref="X40" si="131">SUM(X34:X39)</f>
-        <v>11.507</v>
+        <v>12.5253</v>
       </c>
       <c r="Y40" s="102">
         <f t="shared" si="130"/>
@@ -22354,7 +22352,7 @@
       </c>
       <c r="AK40" s="102">
         <f t="shared" ref="AK40" si="132">SUM(AK34:AK39)</f>
-        <v>11.015000000000001</v>
+        <v>11.54072</v>
       </c>
       <c r="AL40" s="102">
         <f t="shared" si="130"/>
@@ -22406,7 +22404,7 @@
       </c>
       <c r="AX40" s="102">
         <f t="shared" si="133"/>
-        <v>10.523</v>
+        <v>11.54072</v>
       </c>
       <c r="AY40" s="102">
         <f t="shared" si="133"/>
@@ -22542,7 +22540,7 @@
         <v>10.715000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:93" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:93" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="89" t="s">
         <v>118</v>
       </c>
@@ -22633,7 +22631,7 @@
       </c>
       <c r="X41" s="96">
         <f t="shared" ref="X41" si="138">(X40-X38-X18)*0.8</f>
-        <v>5.3976000000000006</v>
+        <v>9.9650400000000001</v>
       </c>
       <c r="Y41" s="96">
         <f t="shared" ref="Y41:AJ41" si="139">(Y40-Y38-Y18)*0.8</f>
@@ -22685,7 +22683,7 @@
       </c>
       <c r="AK41" s="96">
         <f t="shared" ref="AK41" si="140">(AK40-AK38-AK18)*0.8</f>
-        <v>5.0040000000000013</v>
+        <v>9.1773760000000006</v>
       </c>
       <c r="AL41" s="96">
         <f>(AL40-AL38-AL18)*0.8</f>
@@ -22737,7 +22735,7 @@
       </c>
       <c r="AX41" s="96">
         <f t="shared" si="141"/>
-        <v>4.6104000000000003</v>
+        <v>9.1773760000000006</v>
       </c>
       <c r="AY41" s="96">
         <f>(AY40-AY38-AY18)*0.8</f>
@@ -22902,107 +22900,107 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:W23 P7:W19 Y23:AB23 Y4:AB19 P4:Z6 R7:Z10">
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23:AJ23 AL23:AO23 AL4:AO8 AL10:AO11 AC13:AJ14 AL13:AO14 AL16:AO19 AC16:AJ19 AC4:AJ5 AC7:AJ8 AC6:AI6 AC10:AJ11">
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:W22 Y20:AJ22 AL20:AO22">
-    <cfRule type="cellIs" dxfId="195" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
-    <cfRule type="cellIs" dxfId="194" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6">
-    <cfRule type="cellIs" dxfId="193" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X23">
-    <cfRule type="cellIs" dxfId="192" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK8 AK10:AK11 AK13:AK14 AK16:AK23">
-    <cfRule type="cellIs" dxfId="191" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:BB30">
-    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP23:AW23 AP7:AW19 AY23:BB23 AY4:BB19 AP4:BA6 AS7:BA10">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20:AW22 AY20:BB22">
-    <cfRule type="cellIs" dxfId="189" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW6">
-    <cfRule type="cellIs" dxfId="188" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX23">
-    <cfRule type="cellIs" dxfId="187" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL9:AO9 AC9:AI9">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="186" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9">
-    <cfRule type="cellIs" dxfId="185" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AI12 AL12:AO12">
-    <cfRule type="cellIs" dxfId="184" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="183" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12">
-    <cfRule type="cellIs" dxfId="182" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15:AI15 AL15:AO15">
-    <cfRule type="cellIs" dxfId="181" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="179" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23027,30 +23025,30 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" style="74" customWidth="1"/>
-    <col min="2" max="11" width="6.15234375" style="74" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="74" customWidth="1"/>
+    <col min="2" max="11" width="6.1796875" style="74" customWidth="1"/>
     <col min="12" max="12" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="6.15234375" style="74" customWidth="1"/>
+    <col min="13" max="24" width="6.1796875" style="74" customWidth="1"/>
     <col min="25" max="25" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="26" max="37" width="6.15234375" style="74" customWidth="1"/>
+    <col min="26" max="37" width="6.1796875" style="74" customWidth="1"/>
     <col min="38" max="38" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="39" max="50" width="6.15234375" style="74" customWidth="1"/>
+    <col min="39" max="50" width="6.1796875" style="74" customWidth="1"/>
     <col min="51" max="51" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="52" max="66" width="6.15234375" style="74" customWidth="1"/>
-    <col min="67" max="67" width="6.3828125" style="74" customWidth="1"/>
-    <col min="68" max="81" width="5.3828125" style="74" customWidth="1"/>
-    <col min="82" max="83" width="17.3046875" style="74" customWidth="1"/>
-    <col min="84" max="84" width="12.84375" style="74" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.84375" style="301" customWidth="1"/>
+    <col min="52" max="66" width="6.1796875" style="74" customWidth="1"/>
+    <col min="67" max="67" width="6.36328125" style="74" customWidth="1"/>
+    <col min="68" max="81" width="5.36328125" style="74" customWidth="1"/>
+    <col min="82" max="83" width="17.26953125" style="74" customWidth="1"/>
+    <col min="84" max="84" width="12.81640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.81640625" style="301" customWidth="1"/>
     <col min="86" max="86" width="13" style="74" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.15234375" style="74" bestFit="1" customWidth="1"/>
-    <col min="88" max="118" width="5.3828125" style="74" customWidth="1"/>
-    <col min="119" max="16384" width="11.3828125" style="74"/>
+    <col min="87" max="87" width="19.1796875" style="74" bestFit="1" customWidth="1"/>
+    <col min="88" max="118" width="5.36328125" style="74" customWidth="1"/>
+    <col min="119" max="16384" width="11.36328125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="73" customFormat="1" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:87" s="73" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
@@ -23132,7 +23130,7 @@
       <c r="BO1" s="100"/>
       <c r="CG1" s="297"/>
     </row>
-    <row r="2" spans="1:87" s="209" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" s="209" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="203"/>
       <c r="B2" s="203">
         <v>2016</v>
@@ -23346,7 +23344,7 @@
       <c r="BO2" s="208"/>
       <c r="CG2" s="298"/>
     </row>
-    <row r="3" spans="1:87" s="278" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:87" s="278" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="279"/>
       <c r="B3" s="279" t="s">
         <v>43</v>
@@ -23565,7 +23563,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="282"/>
       <c r="B4" s="86"/>
       <c r="C4" s="97"/>
@@ -23663,7 +23661,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="5" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="283"/>
       <c r="B5" s="87"/>
       <c r="C5" s="98"/>
@@ -23761,7 +23759,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="6" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="283"/>
       <c r="B6" s="87"/>
       <c r="C6" s="98"/>
@@ -23860,7 +23858,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="283"/>
       <c r="B7" s="87"/>
       <c r="C7" s="98"/>
@@ -23958,7 +23956,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="283"/>
       <c r="B8" s="87"/>
       <c r="C8" s="98"/>
@@ -24056,7 +24054,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="283"/>
       <c r="B9" s="87"/>
       <c r="C9" s="98"/>
@@ -24154,7 +24152,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="283"/>
       <c r="B10" s="87"/>
       <c r="C10" s="98"/>
@@ -24252,7 +24250,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="11" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="283"/>
       <c r="B11" s="87"/>
       <c r="C11" s="98"/>
@@ -24350,7 +24348,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="283"/>
       <c r="B12" s="87"/>
       <c r="C12" s="98"/>
@@ -24448,7 +24446,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="284"/>
       <c r="B13" s="95"/>
       <c r="C13" s="99"/>
@@ -24535,7 +24533,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="CD14" s="294" t="s">
         <v>197</v>
       </c>
@@ -24555,7 +24553,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="CD15" s="294" t="s">
         <v>200</v>
       </c>
@@ -24575,7 +24573,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="CD16" s="294" t="s">
         <v>203</v>
       </c>
@@ -24595,7 +24593,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="82" t="s">
         <v>64</v>
       </c>
@@ -24693,7 +24691,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:87" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="203"/>
       <c r="B18" s="203">
         <v>2016</v>
@@ -24921,7 +24919,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="19" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="279"/>
       <c r="B19" s="279" t="s">
         <v>43</v>
@@ -25119,7 +25117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="282" t="s">
         <v>36</v>
       </c>
@@ -25319,7 +25317,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="283" t="s">
         <v>37</v>
       </c>
@@ -25519,7 +25517,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="283" t="s">
         <v>38</v>
       </c>
@@ -25719,7 +25717,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="283" t="s">
         <v>39</v>
       </c>
@@ -25919,7 +25917,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="283" t="s">
         <v>35</v>
       </c>
@@ -26119,7 +26117,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="283" t="str">
         <f>A21&amp;"_CCS"</f>
         <v>lign_CCS</v>
@@ -26320,7 +26318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="283" t="str">
         <f>A22&amp;"_CCS"</f>
         <v>coal_CCS</v>
@@ -26521,7 +26519,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="283" t="str">
         <f>A23&amp;"_CCS"</f>
         <v>CCGT_CCS</v>
@@ -26722,7 +26720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="283" t="s">
         <v>248</v>
       </c>
@@ -26922,7 +26920,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="283" t="s">
         <v>249</v>
       </c>
@@ -27122,7 +27120,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:87" ht="12.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:87" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="283" t="s">
         <v>163</v>
       </c>
@@ -27322,7 +27320,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="283" t="s">
         <v>57</v>
       </c>
@@ -27522,7 +27520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="283" t="s">
         <v>58</v>
       </c>
@@ -27722,7 +27720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="283" t="s">
         <v>5</v>
       </c>
@@ -27922,7 +27920,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="283" t="s">
         <v>252</v>
       </c>
@@ -28122,7 +28120,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="283" t="s">
         <v>250</v>
       </c>
@@ -28327,327 +28325,327 @@
     <mergeCell ref="BQ4:CA12"/>
   </mergeCells>
   <conditionalFormatting sqref="AX4:BA13 AG4:AV13 X4:AE13 S4:V13 K4:N13 B4:I13">
-    <cfRule type="cellIs" dxfId="178" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:AE23 S20:V23 K20:N23 B20:I23 AX20:BA23 AG20:AV23 AG25:AV27 AX25:BA27 B25:I27 K25:N27 S25:V27 X25:AE27 X29:AE32 S29:V32 K29:N32 B29:I32 AX29:BA32 AG29:AV32">
-    <cfRule type="cellIs" dxfId="177" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="77" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:R23 O25:R27 O29:R32">
-    <cfRule type="cellIs" dxfId="176" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="73" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:R13">
-    <cfRule type="cellIs" dxfId="175" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AF13">
-    <cfRule type="cellIs" dxfId="174" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20:AF23 AF25:AF27 AF29:AF32">
-    <cfRule type="cellIs" dxfId="173" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="71" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW20:AW23 AW25:AW27 AW29:AW32">
-    <cfRule type="cellIs" dxfId="172" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="60" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J13">
-    <cfRule type="cellIs" dxfId="171" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W13">
-    <cfRule type="cellIs" dxfId="170" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AW13">
-    <cfRule type="cellIs" dxfId="169" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J23 J25:J27 J29:J32">
-    <cfRule type="cellIs" dxfId="168" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="62" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:W23 W25:W27 W29:W32">
-    <cfRule type="cellIs" dxfId="167" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="61" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:AE33 S33:V33 K33:N33 B33:I33 AX33:BA33 AG33:AV33">
-    <cfRule type="cellIs" dxfId="166" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="53" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33:R33">
-    <cfRule type="cellIs" dxfId="165" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="52" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33">
-    <cfRule type="cellIs" dxfId="164" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="51" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW33">
-    <cfRule type="cellIs" dxfId="163" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="48" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="162" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="50" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33">
-    <cfRule type="cellIs" dxfId="161" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="49" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG24:AV24 AX24:BA24 B24:I24 K24:N24 S24:V24 X24:AE24">
-    <cfRule type="cellIs" dxfId="160" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="47" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:R24">
-    <cfRule type="cellIs" dxfId="159" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="46" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="158" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="45" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24">
-    <cfRule type="cellIs" dxfId="157" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="42" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="44" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="155" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="43" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28:AE28 S28:V28 K28:N28 B28:I28 AX28:BA28 AG28:AV28">
-    <cfRule type="cellIs" dxfId="154" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="41" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:R28">
-    <cfRule type="cellIs" dxfId="153" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="40" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="152" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="39" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW28">
-    <cfRule type="cellIs" dxfId="151" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="36" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="150" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="37" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:N35 B35:I35">
-    <cfRule type="cellIs" dxfId="148" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="35" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="147" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="34" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35:AE35 S35:V35 AX35:BA35 AG35:AV35">
-    <cfRule type="cellIs" dxfId="146" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="33" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:R35">
-    <cfRule type="cellIs" dxfId="145" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="32" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="31" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW35">
-    <cfRule type="cellIs" dxfId="143" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="142" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4:BN13 BB4:BI13">
-    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ4:BJ13">
-    <cfRule type="cellIs" dxfId="140" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB26:BI27 BK26:BN27 BK29:BN32 BB29:BI32 BB23:BI23 BK23:BN23">
-    <cfRule type="cellIs" dxfId="139" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="26" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ26:BJ27 BJ29:BJ32 BJ23">
-    <cfRule type="cellIs" dxfId="138" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="25" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK33:BN33 BB33:BI33">
-    <cfRule type="cellIs" dxfId="137" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="24" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ33">
-    <cfRule type="cellIs" dxfId="136" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="23" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB24:BI24 BK24:BN24">
-    <cfRule type="cellIs" dxfId="135" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="22" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ24">
-    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="21" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK28:BN28 BB28:BI28">
-    <cfRule type="cellIs" dxfId="133" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="20" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ28">
-    <cfRule type="cellIs" dxfId="132" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK35:BN35 BB35:BI35">
-    <cfRule type="cellIs" dxfId="131" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ35">
-    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="17" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB25:BI25 BK25:BN25">
-    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ25">
-    <cfRule type="cellIs" dxfId="128" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="15" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB22:BI22 BK22:BN22">
-    <cfRule type="cellIs" dxfId="127" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="14" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ22">
-    <cfRule type="cellIs" dxfId="126" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB21:BI21 BK21:BN21">
-    <cfRule type="cellIs" dxfId="125" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="12" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ21">
-    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="11" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB20:BI20 BK20:BN20">
-    <cfRule type="cellIs" dxfId="123" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ20">
-    <cfRule type="cellIs" dxfId="122" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="9" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:AE34 S34:V34 K34:N34 B34:I34 AX34:BA34 AG34:AV34">
-    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="8" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:R34">
-    <cfRule type="cellIs" dxfId="120" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="6" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW34">
-    <cfRule type="cellIs" dxfId="118" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK34:BN34 BB34:BI34">
-    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ34">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
       <formula>"inf"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28665,22 +28663,22 @@
   <dimension ref="A1:CB45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" style="74" customWidth="1"/>
-    <col min="2" max="67" width="5.84375" style="74" customWidth="1"/>
-    <col min="68" max="69" width="6.3828125" style="74" customWidth="1"/>
-    <col min="70" max="120" width="5.3828125" style="74" customWidth="1"/>
-    <col min="121" max="16384" width="11.3828125" style="74"/>
+    <col min="1" max="1" width="9.36328125" style="74" customWidth="1"/>
+    <col min="2" max="67" width="5.81640625" style="74" customWidth="1"/>
+    <col min="68" max="69" width="6.36328125" style="74" customWidth="1"/>
+    <col min="70" max="120" width="5.36328125" style="74" customWidth="1"/>
+    <col min="121" max="16384" width="11.36328125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
@@ -28757,7 +28755,7 @@
       <c r="BP1" s="100"/>
       <c r="BQ1" s="100"/>
     </row>
-    <row r="2" spans="1:70" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="78">
@@ -28960,7 +28958,7 @@
       </c>
       <c r="BQ2" s="104"/>
     </row>
-    <row r="3" spans="1:70" s="80" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" s="80" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="114"/>
       <c r="C3" s="90" t="s">
@@ -29162,7 +29160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="92" t="s">
         <v>37</v>
       </c>
@@ -29346,7 +29344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75" t="s">
         <v>37</v>
       </c>
@@ -29531,7 +29529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>37</v>
       </c>
@@ -29716,7 +29714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="92" t="s">
         <v>38</v>
       </c>
@@ -29901,7 +29899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="75" t="s">
         <v>38</v>
       </c>
@@ -30086,7 +30084,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
         <v>38</v>
       </c>
@@ -30271,7 +30269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
         <v>39</v>
       </c>
@@ -30453,7 +30451,7 @@
       </c>
       <c r="BQ10" s="105"/>
     </row>
-    <row r="11" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>39</v>
       </c>
@@ -30635,7 +30633,7 @@
       </c>
       <c r="BQ11" s="105"/>
     </row>
-    <row r="12" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="77" t="s">
         <v>39</v>
       </c>
@@ -30817,7 +30815,7 @@
       </c>
       <c r="BQ12" s="105"/>
     </row>
-    <row r="13" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="75" t="s">
         <v>35</v>
       </c>
@@ -30927,7 +30925,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="415">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="415">
         <v>0.184</v>
@@ -30966,7 +30964,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="98">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="98">
         <v>0.184</v>
@@ -30999,7 +30997,7 @@
       </c>
       <c r="BQ13" s="105"/>
     </row>
-    <row r="14" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="75" t="s">
         <v>35</v>
       </c>
@@ -31070,7 +31068,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="X14" s="98">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="98">
         <v>0.16700000000000001</v>
@@ -31109,7 +31107,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AK14" s="415">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="415">
         <v>8.4000000000000005E-2</v>
@@ -31181,7 +31179,7 @@
       </c>
       <c r="BQ14" s="105"/>
     </row>
-    <row r="15" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75" t="s">
         <v>35</v>
       </c>
@@ -31363,7 +31361,7 @@
       </c>
       <c r="BQ15" s="105"/>
     </row>
-    <row r="16" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="105" t="s">
         <v>45</v>
       </c>
@@ -31435,7 +31433,7 @@
       <c r="BO16" s="81"/>
       <c r="BP16" s="116"/>
     </row>
-    <row r="17" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="81"/>
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
@@ -31506,7 +31504,7 @@
       <c r="BP17" s="76"/>
       <c r="BQ17" s="76"/>
     </row>
-    <row r="18" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="74" t="s">
         <v>245</v>
       </c>
@@ -31524,7 +31522,7 @@
       <c r="CA18" s="76"/>
       <c r="CB18" s="76"/>
     </row>
-    <row r="19" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="188"/>
       <c r="B19" s="189"/>
       <c r="C19" s="78">
@@ -31788,7 +31786,7 @@
         <v>LTE</v>
       </c>
     </row>
-    <row r="20" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="190"/>
       <c r="B20" s="191"/>
       <c r="C20" s="90" t="str">
@@ -32052,7 +32050,7 @@
         <v>SWE</v>
       </c>
     </row>
-    <row r="21" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="192" t="s">
         <v>160</v>
       </c>
@@ -32143,7 +32141,7 @@
       </c>
       <c r="X21" s="97">
         <f t="shared" si="6"/>
-        <v>3.6000000000000004E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Y21" s="97">
         <f t="shared" si="6"/>
@@ -32195,7 +32193,7 @@
       </c>
       <c r="AK21" s="97">
         <f t="shared" si="7"/>
-        <v>2.7000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="AL21" s="97">
         <f t="shared" si="7"/>
@@ -32247,7 +32245,7 @@
       </c>
       <c r="AX21" s="97">
         <f t="shared" si="6"/>
-        <v>1.9000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="AY21" s="97">
         <f t="shared" si="6"/>
@@ -32318,7 +32316,7 @@
         <v>0.28400000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26" s="224" t="s">
         <v>126</v>
       </c>
@@ -32374,7 +32372,7 @@
       <c r="BA26" s="116"/>
       <c r="BB26" s="116"/>
     </row>
-    <row r="27" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="74" t="s">
         <v>37</v>
       </c>
@@ -32470,7 +32468,7 @@
       <c r="BA27" s="116"/>
       <c r="BB27" s="116"/>
     </row>
-    <row r="28" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="74" t="s">
         <v>37</v>
       </c>
@@ -32566,7 +32564,7 @@
       <c r="BA28" s="116"/>
       <c r="BB28" s="116"/>
     </row>
-    <row r="29" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="74" t="s">
         <v>37</v>
       </c>
@@ -32662,7 +32660,7 @@
       <c r="BA29" s="116"/>
       <c r="BB29" s="116"/>
     </row>
-    <row r="30" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="74" t="s">
         <v>38</v>
       </c>
@@ -32758,7 +32756,7 @@
       <c r="BA30" s="116"/>
       <c r="BB30" s="116"/>
     </row>
-    <row r="31" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="74" t="s">
         <v>38</v>
       </c>
@@ -32854,7 +32852,7 @@
       <c r="BA31" s="116"/>
       <c r="BB31" s="116"/>
     </row>
-    <row r="32" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74" t="s">
         <v>38</v>
       </c>
@@ -32950,7 +32948,7 @@
       <c r="BA32" s="116"/>
       <c r="BB32" s="116"/>
     </row>
-    <row r="33" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="74" t="s">
         <v>39</v>
       </c>
@@ -33046,7 +33044,7 @@
       <c r="BA33" s="116"/>
       <c r="BB33" s="116"/>
     </row>
-    <row r="34" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="74" t="s">
         <v>39</v>
       </c>
@@ -33142,7 +33140,7 @@
       <c r="BA34" s="116"/>
       <c r="BB34" s="116"/>
     </row>
-    <row r="35" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="74" t="s">
         <v>39</v>
       </c>
@@ -33238,7 +33236,7 @@
       <c r="BA35" s="116"/>
       <c r="BB35" s="116"/>
     </row>
-    <row r="36" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="74" t="s">
         <v>35</v>
       </c>
@@ -33334,7 +33332,7 @@
       <c r="BA36" s="116"/>
       <c r="BB36" s="116"/>
     </row>
-    <row r="37" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="74" t="s">
         <v>35</v>
       </c>
@@ -33430,7 +33428,7 @@
       <c r="BA37" s="116"/>
       <c r="BB37" s="116"/>
     </row>
-    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="74" t="s">
         <v>35</v>
       </c>
@@ -33526,7 +33524,7 @@
       <c r="BA38" s="116"/>
       <c r="BB38" s="116"/>
     </row>
-    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="116"/>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -33580,7 +33578,7 @@
       <c r="BA39" s="116"/>
       <c r="BB39" s="116"/>
     </row>
-    <row r="40" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="116"/>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -33636,7 +33634,7 @@
       <c r="BA40" s="116"/>
       <c r="BB40" s="116"/>
     </row>
-    <row r="41" spans="1:54" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:54" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C41" s="116"/>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -33691,7 +33689,7 @@
       <c r="BA41" s="116"/>
       <c r="BB41" s="116"/>
     </row>
-    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H42" s="116"/>
       <c r="I42" s="272"/>
       <c r="J42" s="273" t="s">
@@ -33708,7 +33706,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I43" s="268" t="s">
         <v>151</v>
       </c>
@@ -33730,7 +33728,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="44" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I44" s="268" t="s">
         <v>152</v>
       </c>
@@ -33752,7 +33750,7 @@
         <v>0.55882352941176472</v>
       </c>
     </row>
-    <row r="45" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I45" s="275" t="s">
         <v>155</v>
       </c>
@@ -33782,47 +33780,47 @@
     <mergeCell ref="I40:N40"/>
   </mergeCells>
   <conditionalFormatting sqref="P10:BB15 AH4:AS8 AU4:BB9 P9:AS9 P4:AF8">
-    <cfRule type="cellIs" dxfId="113" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BO15">
-    <cfRule type="cellIs" dxfId="112" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:BB21">
-    <cfRule type="cellIs" dxfId="111" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC21:BO21">
-    <cfRule type="cellIs" dxfId="110" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:BB38 P26:BB26">
-    <cfRule type="cellIs" dxfId="109" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG7">
-    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="107" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4:AT9">
-    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:O15">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33850,21 +33848,21 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="5.84375" style="74" customWidth="1"/>
-    <col min="3" max="8" width="6.15234375" style="74" customWidth="1"/>
-    <col min="9" max="9" width="7.3046875" style="74" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.15234375" style="74" customWidth="1"/>
-    <col min="13" max="13" width="6.3828125" style="74" customWidth="1"/>
-    <col min="14" max="15" width="6.15234375" style="74" customWidth="1"/>
-    <col min="16" max="28" width="5.84375" style="74" customWidth="1"/>
-    <col min="29" max="32" width="6.15234375" style="74" customWidth="1"/>
-    <col min="33" max="16384" width="11.3828125" style="74"/>
+    <col min="1" max="1" width="9.36328125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="74" customWidth="1"/>
+    <col min="3" max="8" width="6.1796875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.1796875" style="74" customWidth="1"/>
+    <col min="13" max="13" width="6.36328125" style="74" customWidth="1"/>
+    <col min="14" max="15" width="6.1796875" style="74" customWidth="1"/>
+    <col min="16" max="28" width="5.81640625" style="74" customWidth="1"/>
+    <col min="29" max="32" width="6.1796875" style="74" customWidth="1"/>
+    <col min="33" max="16384" width="11.36328125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>64</v>
       </c>
@@ -33902,7 +33900,7 @@
       <c r="AA1" s="109"/>
       <c r="AB1" s="109"/>
     </row>
-    <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="210" t="s">
         <v>43</v>
       </c>
@@ -33943,7 +33941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>139</v>
       </c>
@@ -33991,7 +33989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="74" t="s">
         <v>64</v>
       </c>
@@ -34035,7 +34033,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
         <v>140</v>
       </c>
@@ -34084,7 +34082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="74" t="s">
         <v>141</v>
       </c>
@@ -34132,7 +34130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="209" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" s="209" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="203"/>
       <c r="B7" s="204"/>
       <c r="C7" s="203">
@@ -34224,7 +34222,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="216" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" s="216" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="210"/>
       <c r="B8" s="211"/>
       <c r="C8" s="210" t="s">
@@ -34312,7 +34310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="92" t="s">
         <v>36</v>
       </c>
@@ -34418,7 +34416,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="92" t="s">
         <v>37</v>
       </c>
@@ -34526,7 +34524,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>37</v>
       </c>
@@ -34631,7 +34629,7 @@
       </c>
       <c r="AF11" s="233"/>
     </row>
-    <row r="12" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="75" t="s">
         <v>37</v>
       </c>
@@ -34736,7 +34734,7 @@
       </c>
       <c r="AF12" s="233"/>
     </row>
-    <row r="13" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="92" t="s">
         <v>38</v>
       </c>
@@ -34841,7 +34839,7 @@
       </c>
       <c r="AF13" s="233"/>
     </row>
-    <row r="14" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="75" t="s">
         <v>38</v>
       </c>
@@ -34946,7 +34944,7 @@
       </c>
       <c r="AF14" s="233"/>
     </row>
-    <row r="15" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="77" t="s">
         <v>38</v>
       </c>
@@ -35051,7 +35049,7 @@
       </c>
       <c r="AF15" s="233"/>
     </row>
-    <row r="16" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75" t="s">
         <v>39</v>
       </c>
@@ -35156,7 +35154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
         <v>39</v>
       </c>
@@ -35261,7 +35259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="77" t="s">
         <v>39</v>
       </c>
@@ -35366,7 +35364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="75" t="s">
         <v>35</v>
       </c>
@@ -35469,7 +35467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="75" t="s">
         <v>35</v>
       </c>
@@ -35572,7 +35570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="75" t="s">
         <v>35</v>
       </c>
@@ -35675,7 +35673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="81"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -35691,7 +35689,7 @@
       <c r="N22" s="81"/>
       <c r="O22" s="81"/>
     </row>
-    <row r="23" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="81" t="s">
         <v>144</v>
       </c>
@@ -35713,7 +35711,7 @@
       <c r="N23" s="81"/>
       <c r="O23" s="81"/>
     </row>
-    <row r="24" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="81"/>
       <c r="B24" s="81"/>
       <c r="C24" s="81"/>
@@ -35730,7 +35728,7 @@
       <c r="N24" s="81"/>
       <c r="O24" s="81"/>
     </row>
-    <row r="25" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="188"/>
       <c r="B25" s="189"/>
       <c r="C25" s="78">
@@ -35773,7 +35771,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="190"/>
       <c r="B26" s="191"/>
       <c r="C26" s="210" t="s">
@@ -35816,7 +35814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="192" t="s">
         <v>164</v>
       </c>
@@ -35872,7 +35870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="74" t="s">
         <v>137</v>
       </c>
@@ -35916,7 +35914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="103" t="s">
         <v>36</v>
       </c>
@@ -35976,7 +35974,7 @@
         <v>3.6304000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="103" t="s">
         <v>37</v>
       </c>
@@ -36036,7 +36034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="103" t="s">
         <v>37</v>
       </c>
@@ -36096,7 +36094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="103" t="s">
         <v>37</v>
       </c>
@@ -36156,7 +36154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="103" t="s">
         <v>38</v>
       </c>
@@ -36216,7 +36214,7 @@
         <v>2.7200000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="103" t="s">
         <v>38</v>
       </c>
@@ -36276,7 +36274,7 @@
         <v>2.7200000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="103" t="s">
         <v>38</v>
       </c>
@@ -36336,7 +36334,7 @@
         <v>2.7200000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="103" t="s">
         <v>39</v>
       </c>
@@ -36396,7 +36394,7 @@
         <v>0.31160000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="103" t="s">
         <v>39</v>
       </c>
@@ -36456,7 +36454,7 @@
         <v>0.31160000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="103" t="s">
         <v>39</v>
       </c>
@@ -36516,7 +36514,7 @@
         <v>0.31160000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="103" t="s">
         <v>35</v>
       </c>
@@ -36576,7 +36574,7 @@
         <v>0.31160000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="103" t="s">
         <v>35</v>
       </c>
@@ -36636,7 +36634,7 @@
         <v>0.31160000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="103" t="s">
         <v>35</v>
       </c>
@@ -36701,43 +36699,43 @@
     <mergeCell ref="AC7:AD7"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:F21 H9:O21">
-    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F42 H30:O42">
-    <cfRule type="cellIs" dxfId="103" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:AB21">
-    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:F27 H27:O27">
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G21">
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G42">
-    <cfRule type="cellIs" dxfId="98" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36761,121 +36759,121 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" style="74" customWidth="1"/>
-    <col min="2" max="14" width="5.84375" style="74" customWidth="1"/>
-    <col min="15" max="116" width="5.3828125" style="74" customWidth="1"/>
-    <col min="117" max="131" width="6.3828125" style="74" customWidth="1"/>
-    <col min="132" max="172" width="5.3828125" style="74" customWidth="1"/>
-    <col min="173" max="16384" width="11.3828125" style="74"/>
+    <col min="1" max="1" width="12.36328125" style="74" customWidth="1"/>
+    <col min="2" max="14" width="5.81640625" style="74" customWidth="1"/>
+    <col min="15" max="116" width="5.36328125" style="74" customWidth="1"/>
+    <col min="117" max="131" width="6.36328125" style="74" customWidth="1"/>
+    <col min="132" max="172" width="5.36328125" style="74" customWidth="1"/>
+    <col min="173" max="16384" width="11.36328125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:215" s="80" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:215" s="80" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="382" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="441" t="s">
+      <c r="B1" s="442" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
-      <c r="K1" s="442"/>
-      <c r="L1" s="442"/>
-      <c r="M1" s="442"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
+      <c r="J1" s="441"/>
+      <c r="K1" s="441"/>
+      <c r="L1" s="441"/>
+      <c r="M1" s="441"/>
       <c r="N1" s="443"/>
-      <c r="O1" s="441" t="s">
+      <c r="O1" s="442" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="442"/>
-      <c r="Q1" s="442"/>
-      <c r="R1" s="442"/>
-      <c r="S1" s="442"/>
-      <c r="T1" s="442"/>
-      <c r="U1" s="442"/>
-      <c r="V1" s="442"/>
-      <c r="W1" s="442"/>
-      <c r="X1" s="442"/>
-      <c r="Y1" s="442"/>
-      <c r="Z1" s="442"/>
-      <c r="AA1" s="442"/>
-      <c r="AB1" s="441" t="s">
+      <c r="P1" s="441"/>
+      <c r="Q1" s="441"/>
+      <c r="R1" s="441"/>
+      <c r="S1" s="441"/>
+      <c r="T1" s="441"/>
+      <c r="U1" s="441"/>
+      <c r="V1" s="441"/>
+      <c r="W1" s="441"/>
+      <c r="X1" s="441"/>
+      <c r="Y1" s="441"/>
+      <c r="Z1" s="441"/>
+      <c r="AA1" s="441"/>
+      <c r="AB1" s="442" t="s">
         <v>225</v>
       </c>
-      <c r="AC1" s="442"/>
-      <c r="AD1" s="442"/>
-      <c r="AE1" s="442"/>
-      <c r="AF1" s="442"/>
-      <c r="AG1" s="442"/>
-      <c r="AH1" s="442"/>
-      <c r="AI1" s="442"/>
-      <c r="AJ1" s="442"/>
-      <c r="AK1" s="442"/>
-      <c r="AL1" s="442"/>
-      <c r="AM1" s="442"/>
+      <c r="AC1" s="441"/>
+      <c r="AD1" s="441"/>
+      <c r="AE1" s="441"/>
+      <c r="AF1" s="441"/>
+      <c r="AG1" s="441"/>
+      <c r="AH1" s="441"/>
+      <c r="AI1" s="441"/>
+      <c r="AJ1" s="441"/>
+      <c r="AK1" s="441"/>
+      <c r="AL1" s="441"/>
+      <c r="AM1" s="441"/>
       <c r="AN1" s="443"/>
-      <c r="AO1" s="442" t="s">
+      <c r="AO1" s="441" t="s">
         <v>229</v>
       </c>
-      <c r="AP1" s="442"/>
-      <c r="AQ1" s="442"/>
-      <c r="AR1" s="442"/>
-      <c r="AS1" s="442"/>
-      <c r="AT1" s="442"/>
-      <c r="AU1" s="442"/>
-      <c r="AV1" s="442"/>
-      <c r="AW1" s="442"/>
-      <c r="AX1" s="442"/>
-      <c r="AY1" s="442"/>
-      <c r="AZ1" s="442"/>
-      <c r="BA1" s="442"/>
-      <c r="BB1" s="441" t="s">
+      <c r="AP1" s="441"/>
+      <c r="AQ1" s="441"/>
+      <c r="AR1" s="441"/>
+      <c r="AS1" s="441"/>
+      <c r="AT1" s="441"/>
+      <c r="AU1" s="441"/>
+      <c r="AV1" s="441"/>
+      <c r="AW1" s="441"/>
+      <c r="AX1" s="441"/>
+      <c r="AY1" s="441"/>
+      <c r="AZ1" s="441"/>
+      <c r="BA1" s="441"/>
+      <c r="BB1" s="442" t="s">
         <v>230</v>
       </c>
-      <c r="BC1" s="442"/>
-      <c r="BD1" s="442"/>
-      <c r="BE1" s="442"/>
-      <c r="BF1" s="442"/>
-      <c r="BG1" s="442"/>
-      <c r="BH1" s="442"/>
-      <c r="BI1" s="442"/>
-      <c r="BJ1" s="442"/>
-      <c r="BK1" s="442"/>
-      <c r="BL1" s="442"/>
-      <c r="BM1" s="442"/>
+      <c r="BC1" s="441"/>
+      <c r="BD1" s="441"/>
+      <c r="BE1" s="441"/>
+      <c r="BF1" s="441"/>
+      <c r="BG1" s="441"/>
+      <c r="BH1" s="441"/>
+      <c r="BI1" s="441"/>
+      <c r="BJ1" s="441"/>
+      <c r="BK1" s="441"/>
+      <c r="BL1" s="441"/>
+      <c r="BM1" s="441"/>
       <c r="BN1" s="443"/>
-      <c r="BO1" s="442" t="s">
+      <c r="BO1" s="441" t="s">
         <v>231</v>
       </c>
-      <c r="BP1" s="442"/>
-      <c r="BQ1" s="442"/>
-      <c r="BR1" s="442"/>
-      <c r="BS1" s="442"/>
-      <c r="BT1" s="442"/>
-      <c r="BU1" s="442"/>
-      <c r="BV1" s="442"/>
-      <c r="BW1" s="442"/>
-      <c r="BX1" s="442"/>
-      <c r="BY1" s="442"/>
-      <c r="BZ1" s="442"/>
-      <c r="CA1" s="442"/>
-      <c r="CB1" s="441"/>
-      <c r="CC1" s="442"/>
-      <c r="CD1" s="442"/>
-      <c r="CE1" s="442"/>
-      <c r="CF1" s="442"/>
-      <c r="CG1" s="442"/>
-      <c r="CH1" s="442"/>
-      <c r="CI1" s="442"/>
-      <c r="CJ1" s="442"/>
-      <c r="CK1" s="442"/>
-      <c r="CL1" s="442"/>
+      <c r="BP1" s="441"/>
+      <c r="BQ1" s="441"/>
+      <c r="BR1" s="441"/>
+      <c r="BS1" s="441"/>
+      <c r="BT1" s="441"/>
+      <c r="BU1" s="441"/>
+      <c r="BV1" s="441"/>
+      <c r="BW1" s="441"/>
+      <c r="BX1" s="441"/>
+      <c r="BY1" s="441"/>
+      <c r="BZ1" s="441"/>
+      <c r="CA1" s="441"/>
+      <c r="CB1" s="442"/>
+      <c r="CC1" s="441"/>
+      <c r="CD1" s="441"/>
+      <c r="CE1" s="441"/>
+      <c r="CF1" s="441"/>
+      <c r="CG1" s="441"/>
+      <c r="CH1" s="441"/>
+      <c r="CI1" s="441"/>
+      <c r="CJ1" s="441"/>
+      <c r="CK1" s="441"/>
+      <c r="CL1" s="441"/>
       <c r="CM1" s="443"/>
       <c r="CN1" s="444"/>
       <c r="CO1" s="444"/>
@@ -37002,7 +37000,7 @@
       <c r="HF1" s="354"/>
       <c r="HG1" s="354"/>
     </row>
-    <row r="2" spans="1:215" s="359" customFormat="1" ht="34.299999999999997" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:215" s="359" customFormat="1" ht="33.5" x14ac:dyDescent="0.25">
       <c r="A2" s="355"/>
       <c r="B2" s="379" t="s">
         <v>226</v>
@@ -37375,7 +37373,7 @@
       <c r="HF2" s="357"/>
       <c r="HG2" s="357"/>
     </row>
-    <row r="3" spans="1:215" s="364" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:215" s="364" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="360"/>
       <c r="B3" s="373">
         <v>2013</v>
@@ -37672,7 +37670,7 @@
       <c r="DK3" s="363"/>
       <c r="DN3" s="365"/>
     </row>
-    <row r="4" spans="1:215" s="364" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:215" s="364" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="366"/>
       <c r="B4" s="375" t="s">
         <v>43</v>
@@ -37946,7 +37944,7 @@
       <c r="DK4" s="369"/>
       <c r="DN4" s="365"/>
     </row>
-    <row r="5" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75" t="s">
         <v>36</v>
       </c>
@@ -38253,7 +38251,7 @@
       <c r="EP5" s="343"/>
       <c r="EQ5" s="343"/>
     </row>
-    <row r="6" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>37</v>
       </c>
@@ -38554,7 +38552,7 @@
       <c r="EP6" s="343"/>
       <c r="EQ6" s="343"/>
     </row>
-    <row r="7" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="75" t="s">
         <v>38</v>
       </c>
@@ -38855,7 +38853,7 @@
       <c r="EP7" s="343"/>
       <c r="EQ7" s="343"/>
     </row>
-    <row r="8" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="75" t="s">
         <v>22</v>
       </c>
@@ -39160,7 +39158,7 @@
       <c r="EP8" s="343"/>
       <c r="EQ8" s="343"/>
     </row>
-    <row r="9" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
         <v>128</v>
       </c>
@@ -39459,7 +39457,7 @@
       <c r="EP9" s="343"/>
       <c r="EQ9" s="343"/>
     </row>
-    <row r="10" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
         <v>57</v>
       </c>
@@ -39762,7 +39760,7 @@
       <c r="EP10" s="343"/>
       <c r="EQ10" s="343"/>
     </row>
-    <row r="11" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>58</v>
       </c>
@@ -40063,7 +40061,7 @@
       <c r="EP11" s="343"/>
       <c r="EQ11" s="343"/>
     </row>
-    <row r="12" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="75" t="s">
         <v>5</v>
       </c>
@@ -40364,7 +40362,7 @@
       <c r="EP12" s="343"/>
       <c r="EQ12" s="343"/>
     </row>
-    <row r="13" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="75" t="s">
         <v>48</v>
       </c>
@@ -40663,7 +40661,7 @@
       <c r="EP13" s="343"/>
       <c r="EQ13" s="343"/>
     </row>
-    <row r="14" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="75" t="s">
         <v>227</v>
       </c>
@@ -40968,7 +40966,7 @@
       <c r="EP14" s="343"/>
       <c r="EQ14" s="343"/>
     </row>
-    <row r="15" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="230" t="s">
         <v>46</v>
       </c>
@@ -41272,7 +41270,7 @@
       <c r="EP15" s="343"/>
       <c r="EQ15" s="343"/>
     </row>
-    <row r="16" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="230" t="s">
         <v>47</v>
       </c>
@@ -41576,7 +41574,7 @@
       <c r="EP16" s="343"/>
       <c r="EQ16" s="343"/>
     </row>
-    <row r="17" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="228" t="s">
         <v>50</v>
       </c>
@@ -41881,7 +41879,7 @@
       <c r="EP17" s="343"/>
       <c r="EQ17" s="343"/>
     </row>
-    <row r="18" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="267" t="s">
         <v>129</v>
       </c>
@@ -42186,7 +42184,7 @@
       <c r="EP18" s="343"/>
       <c r="EQ18" s="343"/>
     </row>
-    <row r="19" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="228" t="s">
         <v>232</v>
       </c>
@@ -42479,7 +42477,7 @@
       <c r="EP19" s="343"/>
       <c r="EQ19" s="343"/>
     </row>
-    <row r="20" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="228" t="s">
         <v>233</v>
       </c>
@@ -42784,7 +42782,7 @@
       <c r="EP20" s="343"/>
       <c r="EQ20" s="343"/>
     </row>
-    <row r="21" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="228" t="s">
         <v>234</v>
       </c>
@@ -43077,7 +43075,7 @@
       <c r="EP21" s="343"/>
       <c r="EQ21" s="343"/>
     </row>
-    <row r="22" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="228"/>
       <c r="B22" s="228"/>
       <c r="C22" s="351"/>
@@ -43225,7 +43223,7 @@
       <c r="EP22" s="343"/>
       <c r="EQ22" s="343"/>
     </row>
-    <row r="23" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="225"/>
       <c r="B23" s="225"/>
       <c r="C23" s="226"/>
@@ -43373,7 +43371,7 @@
       <c r="EP23" s="343"/>
       <c r="EQ23" s="343"/>
     </row>
-    <row r="24" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="EB24" s="344"/>
       <c r="EC24" s="343"/>
       <c r="ED24" s="343"/>
@@ -43391,7 +43389,7 @@
       <c r="EP24" s="343"/>
       <c r="EQ24" s="343"/>
     </row>
-    <row r="25" spans="1:172" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:172" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="74"/>
       <c r="B25" s="74"/>
       <c r="C25" s="74"/>
@@ -43558,7 +43556,7 @@
       <c r="FO25" s="74"/>
       <c r="FP25" s="74"/>
     </row>
-    <row r="26" spans="1:172" s="80" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:172" s="80" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="74"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
@@ -43732,7 +43730,7 @@
       <c r="FO26" s="74"/>
       <c r="FP26" s="74"/>
     </row>
-    <row r="27" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="EB27" s="344"/>
       <c r="EC27" s="343"/>
       <c r="ED27" s="343"/>
@@ -43750,7 +43748,7 @@
       <c r="EP27" s="343"/>
       <c r="EQ27" s="343"/>
     </row>
-    <row r="28" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:172" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="EC28" s="343"/>
       <c r="ED28" s="343"/>
       <c r="EE28" s="343"/>
@@ -43767,87 +43765,87 @@
       <c r="EP28" s="343"/>
       <c r="EQ28" s="343"/>
     </row>
-    <row r="36" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="DL36" s="83"/>
     </row>
-    <row r="38" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="DL38" s="83"/>
     </row>
-    <row r="39" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="DL39" s="231"/>
     </row>
-    <row r="40" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="DL40" s="231"/>
     </row>
-    <row r="41" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="116:116" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="DL41" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
+    <mergeCell ref="AO1:BA1"/>
+    <mergeCell ref="BB1:BN1"/>
     <mergeCell ref="BO1:CA1"/>
     <mergeCell ref="CB1:CM1"/>
     <mergeCell ref="CN1:CY1"/>
     <mergeCell ref="CZ1:DK1"/>
     <mergeCell ref="DM5:EA23"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="AB1:AN1"/>
-    <mergeCell ref="AO1:BA1"/>
-    <mergeCell ref="BB1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="AO2:BA2 CN2:DK2 CN5:DK24 AO19:BA24 AO5:CA13 AP14:CA14 AO15:CA18">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="91" priority="5">
       <formula>AO2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1 AO1 BO1">
-    <cfRule type="expression" dxfId="94" priority="4">
+    <cfRule type="expression" dxfId="90" priority="4">
       <formula>O1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO19:CA24 BO2:CA2">
-    <cfRule type="expression" dxfId="93" priority="12">
+    <cfRule type="expression" dxfId="89" priority="12">
       <formula>BO2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:AA24 O5:AN18 O2:AA2">
-    <cfRule type="expression" dxfId="92" priority="11">
+    <cfRule type="expression" dxfId="88" priority="11">
       <formula>O2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:N24 B2:N2 B1 AB1 BB1">
-    <cfRule type="expression" dxfId="91" priority="10">
+    <cfRule type="expression" dxfId="87" priority="10">
       <formula>B1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB2:CM2 CB5:CM24 CB1">
-    <cfRule type="expression" dxfId="90" priority="8">
+    <cfRule type="expression" dxfId="86" priority="8">
       <formula>CB1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB19:BN24 BB2:BN2">
-    <cfRule type="expression" dxfId="89" priority="7">
+    <cfRule type="expression" dxfId="85" priority="7">
       <formula>BB2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB19:AN24 AB2:AN2">
-    <cfRule type="expression" dxfId="88" priority="6">
+    <cfRule type="expression" dxfId="84" priority="6">
       <formula>AB2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN1">
-    <cfRule type="expression" dxfId="87" priority="3">
+    <cfRule type="expression" dxfId="83" priority="3">
       <formula>CN1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ1">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="82" priority="2">
       <formula>CZ1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO14">
-    <cfRule type="expression" dxfId="85" priority="1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>AO14=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43871,21 +43869,21 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" style="74" customWidth="1"/>
-    <col min="2" max="3" width="5.84375" style="74" customWidth="1"/>
-    <col min="4" max="4" width="8.3828125" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.84375" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="74" customWidth="1"/>
+    <col min="2" max="3" width="5.81640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="74" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3828125" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.3828125" style="74" customWidth="1"/>
-    <col min="9" max="9" width="8.3828125" style="74" bestFit="1" customWidth="1"/>
-    <col min="10" max="41" width="5.3828125" style="74" customWidth="1"/>
-    <col min="42" max="16384" width="11.3828125" style="74"/>
+    <col min="7" max="7" width="17.36328125" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.36328125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="41" width="5.36328125" style="74" customWidth="1"/>
+    <col min="42" max="16384" width="11.36328125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="108" t="s">
         <v>64</v>
       </c>
@@ -43909,7 +43907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="252" t="s">
         <v>36</v>
       </c>
@@ -43936,7 +43934,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="75" t="s">
         <v>37</v>
       </c>
@@ -43960,7 +43958,7 @@
         <v>15.018597283726857</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="75" t="s">
         <v>37</v>
       </c>
@@ -43987,7 +43985,7 @@
         <v>16.456402133339868</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75" t="s">
         <v>37</v>
       </c>
@@ -44014,7 +44012,7 @@
         <v>19.266657066674387</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="239" t="s">
         <v>38</v>
       </c>
@@ -44038,7 +44036,7 @@
         <v>25.951722226100554</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="244" t="s">
         <v>38</v>
       </c>
@@ -44065,7 +44063,7 @@
         <v>28.328076723824417</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="246" t="s">
         <v>38</v>
       </c>
@@ -44092,7 +44090,7 @@
         <v>31.204716378963827</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
         <v>39</v>
       </c>
@@ -44116,7 +44114,7 @@
         <v>58.403404579345505</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
         <v>39</v>
       </c>
@@ -44143,7 +44141,7 @@
         <v>63.724480483057334</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>39</v>
       </c>
@@ -44170,7 +44168,7 @@
         <v>78.079010827954392</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="239" t="s">
         <v>35</v>
       </c>
@@ -44194,7 +44192,7 @@
         <v>162.98487328010194</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="244" t="s">
         <v>35</v>
       </c>
@@ -44221,7 +44219,7 @@
         <v>176.03770084335343</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="246" t="s">
         <v>35</v>
       </c>
@@ -44269,30 +44267,30 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3828125" style="143" customWidth="1"/>
-    <col min="10" max="10" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.84375" style="143" bestFit="1" customWidth="1"/>
-    <col min="12" max="35" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="36" max="101" width="5.3828125" style="143" customWidth="1"/>
-    <col min="102" max="107" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="5.3828125" style="143" customWidth="1"/>
-    <col min="109" max="109" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="5.84375" style="143" bestFit="1" customWidth="1"/>
-    <col min="111" max="126" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="7.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="128" max="134" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" style="143" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.81640625" style="143" bestFit="1" customWidth="1"/>
+    <col min="12" max="35" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="36" max="101" width="5.36328125" style="143" customWidth="1"/>
+    <col min="102" max="107" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="5.36328125" style="143" customWidth="1"/>
+    <col min="109" max="109" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="5.81640625" style="143" bestFit="1" customWidth="1"/>
+    <col min="111" max="126" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="7.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="128" max="134" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
     <col min="135" max="164" width="5" style="143" customWidth="1"/>
     <col min="165" max="166" width="5" style="143" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="11.3828125" style="143"/>
-    <col min="168" max="168" width="98.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="169" max="16384" width="11.3828125" style="143"/>
+    <col min="167" max="167" width="11.36328125" style="143"/>
+    <col min="168" max="168" width="98.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="169" max="16384" width="11.36328125" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:168" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="186"/>
       <c r="B1" s="185"/>
       <c r="C1" s="458" t="s">
@@ -44401,7 +44399,7 @@
       <c r="CV1" s="462"/>
       <c r="CW1" s="463"/>
       <c r="CX1" s="461" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CY1" s="462"/>
       <c r="CZ1" s="462"/>
@@ -44470,7 +44468,7 @@
       <c r="FI1" s="459"/>
       <c r="FJ1" s="460"/>
     </row>
-    <row r="2" spans="1:168" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:168" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="184" t="s">
         <v>114</v>
       </c>
@@ -44968,7 +44966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="178" t="s">
         <v>121</v>
       </c>
@@ -45472,7 +45470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="156" t="s">
         <v>112</v>
       </c>
@@ -45882,7 +45880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="156" t="s">
         <v>110</v>
       </c>
@@ -46290,7 +46288,7 @@
       <c r="FK5" s="457"/>
       <c r="FL5" s="164"/>
     </row>
-    <row r="6" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="156" t="s">
         <v>109</v>
       </c>
@@ -46706,7 +46704,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="156" t="s">
         <v>107</v>
       </c>
@@ -47120,7 +47118,7 @@
       <c r="FK7" s="457"/>
       <c r="FL7" s="164"/>
     </row>
-    <row r="8" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="156" t="s">
         <v>105</v>
       </c>
@@ -47530,7 +47528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="156" t="s">
         <v>103</v>
       </c>
@@ -47940,7 +47938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="156" t="s">
         <v>122</v>
       </c>
@@ -48348,7 +48346,7 @@
       <c r="FK10" s="457"/>
       <c r="FL10" s="168"/>
     </row>
-    <row r="11" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="220" t="s">
         <v>123</v>
       </c>
@@ -48762,7 +48760,7 @@
       <c r="FK11" s="457"/>
       <c r="FL11" s="164"/>
     </row>
-    <row r="12" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="220" t="s">
         <v>124</v>
       </c>
@@ -49176,7 +49174,7 @@
       <c r="FK12" s="457"/>
       <c r="FL12" s="164"/>
     </row>
-    <row r="13" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="156" t="s">
         <v>99</v>
       </c>
@@ -49584,7 +49582,7 @@
       <c r="FK13" s="457"/>
       <c r="FL13" s="167"/>
     </row>
-    <row r="14" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="156" t="s">
         <v>98</v>
       </c>
@@ -50010,7 +50008,7 @@
       <c r="FK14" s="457"/>
       <c r="FL14" s="166"/>
     </row>
-    <row r="15" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="156" t="s">
         <v>96</v>
       </c>
@@ -50418,7 +50416,7 @@
       <c r="FK15" s="457"/>
       <c r="FL15" s="164"/>
     </row>
-    <row r="16" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="156" t="s">
         <v>95</v>
       </c>
@@ -50826,7 +50824,7 @@
       <c r="FK16" s="457"/>
       <c r="FL16" s="164"/>
     </row>
-    <row r="17" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="156" t="s">
         <v>94</v>
       </c>
@@ -51240,7 +51238,7 @@
       <c r="FK17" s="457"/>
       <c r="FL17" s="164"/>
     </row>
-    <row r="18" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="156" t="s">
         <v>93</v>
       </c>
@@ -51647,7 +51645,7 @@
       <c r="FJ18" s="150"/>
       <c r="FL18" s="164"/>
     </row>
-    <row r="19" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="156" t="s">
         <v>91</v>
       </c>
@@ -52060,7 +52058,7 @@
       <c r="FJ19" s="150"/>
       <c r="FL19" s="164"/>
     </row>
-    <row r="20" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="156" t="s">
         <v>89</v>
       </c>
@@ -52473,7 +52471,7 @@
       <c r="FJ20" s="150"/>
       <c r="FL20" s="164"/>
     </row>
-    <row r="21" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="156"/>
       <c r="B21" s="155" t="s">
         <v>87</v>
@@ -52878,7 +52876,7 @@
       <c r="FJ21" s="150"/>
       <c r="FL21" s="164"/>
     </row>
-    <row r="22" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="156" t="s">
         <v>86</v>
       </c>
@@ -53291,7 +53289,7 @@
       <c r="FJ22" s="150"/>
       <c r="FL22" s="164"/>
     </row>
-    <row r="23" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="156" t="s">
         <v>84</v>
       </c>
@@ -53704,7 +53702,7 @@
       <c r="FJ23" s="150"/>
       <c r="FL23" s="163"/>
     </row>
-    <row r="24" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="156" t="s">
         <v>82</v>
       </c>
@@ -54110,7 +54108,7 @@
       <c r="FI24" s="152"/>
       <c r="FJ24" s="150"/>
     </row>
-    <row r="25" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="156" t="s">
         <v>81</v>
       </c>
@@ -54516,7 +54514,7 @@
       <c r="FI25" s="153"/>
       <c r="FJ25" s="158"/>
     </row>
-    <row r="26" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="156" t="s">
         <v>80</v>
       </c>
@@ -54928,7 +54926,7 @@
       <c r="FI26" s="152"/>
       <c r="FJ26" s="150"/>
     </row>
-    <row r="27" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="156" t="s">
         <v>79</v>
       </c>
@@ -55334,7 +55332,7 @@
       <c r="FI27" s="152"/>
       <c r="FJ27" s="150"/>
     </row>
-    <row r="28" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="156" t="s">
         <v>77</v>
       </c>
@@ -55746,7 +55744,7 @@
       <c r="FI28" s="152"/>
       <c r="FJ28" s="150"/>
     </row>
-    <row r="29" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="156" t="s">
         <v>75</v>
       </c>
@@ -56152,7 +56150,7 @@
       <c r="FI29" s="153"/>
       <c r="FJ29" s="158"/>
     </row>
-    <row r="30" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="156"/>
       <c r="B30" s="221" t="s">
         <v>74</v>
@@ -56412,7 +56410,7 @@
       <c r="FI30" s="152"/>
       <c r="FJ30" s="150"/>
     </row>
-    <row r="31" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="156"/>
       <c r="B31" s="221" t="s">
         <v>73</v>
@@ -56678,7 +56676,7 @@
       <c r="FI31" s="152"/>
       <c r="FJ31" s="150"/>
     </row>
-    <row r="32" spans="1:168" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:168" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="156"/>
       <c r="B32" s="221" t="s">
         <v>72</v>
@@ -56950,7 +56948,7 @@
       <c r="FI32" s="152"/>
       <c r="FJ32" s="150"/>
     </row>
-    <row r="33" spans="1:166" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:166" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="156"/>
       <c r="B33" s="221" t="s">
         <v>71</v>
@@ -57222,7 +57220,7 @@
       <c r="FI33" s="152"/>
       <c r="FJ33" s="150"/>
     </row>
-    <row r="34" spans="1:166" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:166" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="156" t="s">
         <v>70</v>
       </c>
@@ -57514,7 +57512,7 @@
       <c r="FI34" s="152"/>
       <c r="FJ34" s="150"/>
     </row>
-    <row r="35" spans="1:166" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:166" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="156" t="s">
         <v>68</v>
       </c>
@@ -57950,7 +57948,7 @@
       <c r="FI35" s="151"/>
       <c r="FJ35" s="150"/>
     </row>
-    <row r="36" spans="1:166" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:166" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="149" t="s">
         <v>66</v>
       </c>
@@ -58386,7 +58384,7 @@
       <c r="FI36" s="145"/>
       <c r="FJ36" s="144"/>
     </row>
-    <row r="37" spans="1:166" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:166" x14ac:dyDescent="0.3">
       <c r="ED37" s="143" t="s">
         <v>242</v>
       </c>
@@ -58401,17 +58399,17 @@
     <mergeCell ref="BQ1:CW1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AI36 CX3:FJ36">
-    <cfRule type="cellIs" dxfId="84" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:BP36">
-    <cfRule type="cellIs" dxfId="83" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ3:CW36">
-    <cfRule type="cellIs" dxfId="82" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58439,48 +58437,48 @@
       <selection pane="bottomRight" activeCell="FT2" sqref="FT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.69140625" style="143" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3828125" style="143" customWidth="1"/>
-    <col min="10" max="18" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.3828125" style="143" customWidth="1"/>
-    <col min="21" max="35" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.69140625" style="143" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.3828125" style="143" customWidth="1"/>
-    <col min="39" max="47" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="5.3828125" style="143" customWidth="1"/>
-    <col min="50" max="64" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.69140625" style="143" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.3828125" style="143" customWidth="1"/>
-    <col min="68" max="76" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="5.3828125" style="143" customWidth="1"/>
-    <col min="79" max="93" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="6.69140625" style="143" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="5.3828125" style="143" customWidth="1"/>
-    <col min="97" max="105" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="5.3828125" style="143" customWidth="1"/>
-    <col min="108" max="124" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="5.3828125" style="143" customWidth="1"/>
-    <col min="126" max="134" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="135" max="136" width="5.3828125" style="143" customWidth="1"/>
-    <col min="137" max="153" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="5.3828125" style="143" customWidth="1"/>
-    <col min="155" max="163" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="164" max="165" width="5.3828125" style="143" customWidth="1"/>
-    <col min="166" max="176" width="5.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.3828125" style="143"/>
-    <col min="178" max="178" width="98.3828125" style="143" bestFit="1" customWidth="1"/>
-    <col min="179" max="16384" width="11.3828125" style="143"/>
+    <col min="1" max="1" width="18.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="143" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" style="143" customWidth="1"/>
+    <col min="10" max="18" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.36328125" style="143" customWidth="1"/>
+    <col min="21" max="35" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.7265625" style="143" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.36328125" style="143" customWidth="1"/>
+    <col min="39" max="47" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="5.36328125" style="143" customWidth="1"/>
+    <col min="50" max="64" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.7265625" style="143" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.36328125" style="143" customWidth="1"/>
+    <col min="68" max="76" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="5.36328125" style="143" customWidth="1"/>
+    <col min="79" max="93" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.7265625" style="143" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="5.36328125" style="143" customWidth="1"/>
+    <col min="97" max="105" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="5.36328125" style="143" customWidth="1"/>
+    <col min="108" max="124" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="5.36328125" style="143" customWidth="1"/>
+    <col min="126" max="134" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="135" max="136" width="5.36328125" style="143" customWidth="1"/>
+    <col min="137" max="153" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="5.36328125" style="143" customWidth="1"/>
+    <col min="155" max="163" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="5.36328125" style="143" customWidth="1"/>
+    <col min="166" max="176" width="5.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.36328125" style="143"/>
+    <col min="178" max="178" width="98.36328125" style="143" bestFit="1" customWidth="1"/>
+    <col min="179" max="16384" width="11.36328125" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:178" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="302"/>
       <c r="B1" s="185"/>
       <c r="C1" s="471" t="s">
@@ -58670,7 +58668,7 @@
       <c r="FS1" s="472"/>
       <c r="FT1" s="474"/>
     </row>
-    <row r="2" spans="1:178" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:178" s="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="303" t="s">
         <v>114</v>
       </c>
@@ -59366,7 +59364,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="306" t="s">
         <v>121</v>
       </c>
@@ -59900,7 +59898,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="311" t="s">
         <v>112</v>
       </c>
@@ -60422,7 +60420,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="311" t="s">
         <v>110</v>
       </c>
@@ -60954,7 +60952,7 @@
       <c r="FU5" s="467"/>
       <c r="FV5" s="469"/>
     </row>
-    <row r="6" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="311" t="s">
         <v>109</v>
       </c>
@@ -61474,7 +61472,7 @@
       <c r="FU6" s="467"/>
       <c r="FV6" s="469"/>
     </row>
-    <row r="7" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="311" t="s">
         <v>107</v>
       </c>
@@ -61994,7 +61992,7 @@
       <c r="FU7" s="467"/>
       <c r="FV7" s="469"/>
     </row>
-    <row r="8" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="311" t="s">
         <v>105</v>
       </c>
@@ -62514,7 +62512,7 @@
       <c r="FU8" s="467"/>
       <c r="FV8" s="469"/>
     </row>
-    <row r="9" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="311" t="s">
         <v>103</v>
       </c>
@@ -63034,7 +63032,7 @@
       <c r="FU9" s="467"/>
       <c r="FV9" s="469"/>
     </row>
-    <row r="10" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="311" t="s">
         <v>122</v>
       </c>
@@ -63554,7 +63552,7 @@
       <c r="FU10" s="467"/>
       <c r="FV10" s="469"/>
     </row>
-    <row r="11" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="311" t="s">
         <v>99</v>
       </c>
@@ -64074,7 +64072,7 @@
       <c r="FU11" s="467"/>
       <c r="FV11" s="469"/>
     </row>
-    <row r="12" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="311" t="s">
         <v>98</v>
       </c>
@@ -64594,7 +64592,7 @@
       <c r="FU12" s="467"/>
       <c r="FV12" s="469"/>
     </row>
-    <row r="13" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="311" t="s">
         <v>96</v>
       </c>
@@ -65126,7 +65124,7 @@
       <c r="FU13" s="467"/>
       <c r="FV13" s="469"/>
     </row>
-    <row r="14" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="311" t="s">
         <v>95</v>
       </c>
@@ -65646,7 +65644,7 @@
       <c r="FU14" s="467"/>
       <c r="FV14" s="469"/>
     </row>
-    <row r="15" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="311" t="s">
         <v>94</v>
       </c>
@@ -66178,7 +66176,7 @@
       <c r="FU15" s="467"/>
       <c r="FV15" s="469"/>
     </row>
-    <row r="16" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="311" t="s">
         <v>93</v>
       </c>
@@ -66697,7 +66695,7 @@
       </c>
       <c r="FV16" s="469"/>
     </row>
-    <row r="17" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="311" t="s">
         <v>91</v>
       </c>
@@ -67216,7 +67214,7 @@
       </c>
       <c r="FV17" s="469"/>
     </row>
-    <row r="18" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="311" t="s">
         <v>89</v>
       </c>
@@ -67735,7 +67733,7 @@
       </c>
       <c r="FV18" s="469"/>
     </row>
-    <row r="19" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="311" t="s">
         <v>219</v>
       </c>
@@ -68254,7 +68252,7 @@
       </c>
       <c r="FV19" s="469"/>
     </row>
-    <row r="20" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="311" t="s">
         <v>220</v>
       </c>
@@ -68785,7 +68783,7 @@
       </c>
       <c r="FV20" s="469"/>
     </row>
-    <row r="21" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="311" t="s">
         <v>223</v>
       </c>
@@ -69030,7 +69028,7 @@
       <c r="FT21" s="322"/>
       <c r="FV21" s="469"/>
     </row>
-    <row r="22" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="311" t="s">
         <v>221</v>
       </c>
@@ -69549,7 +69547,7 @@
       </c>
       <c r="FV22" s="470"/>
     </row>
-    <row r="23" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="311" t="s">
         <v>84</v>
       </c>
@@ -70067,7 +70065,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="311" t="s">
         <v>82</v>
       </c>
@@ -70585,7 +70583,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="311" t="s">
         <v>81</v>
       </c>
@@ -71103,7 +71101,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="311" t="s">
         <v>80</v>
       </c>
@@ -71621,7 +71619,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:178" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:178" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="311" t="s">
         <v>79</v>
       </c>
@@ -72139,7 +72137,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="311" t="s">
         <v>77</v>
       </c>
@@ -72657,7 +72655,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="311" t="s">
         <v>75</v>
       </c>
@@ -73175,7 +73173,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="311" t="s">
         <v>70</v>
       </c>
@@ -73693,7 +73691,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="311" t="s">
         <v>68</v>
       </c>
@@ -74211,7 +74209,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:178" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:178" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="333" t="s">
         <v>66</v>
       </c>
@@ -74729,13 +74727,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="92:92" x14ac:dyDescent="0.35">
+    <row r="36" spans="92:92" x14ac:dyDescent="0.3">
       <c r="CN36" s="340"/>
     </row>
-    <row r="37" spans="92:92" x14ac:dyDescent="0.35">
+    <row r="37" spans="92:92" x14ac:dyDescent="0.3">
       <c r="CN37" s="340"/>
     </row>
-    <row r="38" spans="92:92" x14ac:dyDescent="0.35">
+    <row r="38" spans="92:92" x14ac:dyDescent="0.3">
       <c r="CN38" s="340"/>
     </row>
   </sheetData>
@@ -74750,348 +74748,348 @@
     <mergeCell ref="ER1:FT1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:S15 U3:AV15 AX3:BY15 CA3:DB15 DD3:EE15 EG3:FH15 FJ3:FT15 C22:FT32 C16:FT19 C20:R20 U20:AU20 AX20:BX20 CA20:DA20 DD20:ED20 EG20:FG20 FJ20:FT20">
-    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD1048576 A27:FU44 FW27:XFD44 A3:S15 U3:AV15 AX3:BY15 CA3:DB15 DD3:EE15 EG3:FH15 FJ3:XFD15 A1:XFD2 A22:XFD26 A16:XFD19 A20:R20 U20:AU20 AX20:BX20 CA20:DA20 DD20:ED20 EG20:FG20 FJ20:XFD20">
-    <cfRule type="cellIs" dxfId="80" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:CW5">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DY5:DZ5">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FB5:FC5">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD14">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG14">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EJ14">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM14">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR22 AH22 AH16 AP5:AQ5 AL14 AG14:AG15">
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ET30:EU30 ET22 EU23:EV23 FD22 FE7 FB5:FC5 EX14 ES14:ES15 EO22 EK31 EJ14 DY5:DZ5 EA22 DU14 DP14:DP15 DQ22 DL22 DG14 CX22 CV5:CW5 CR14 CN22 CM14:CM15 CE31 CI22 CJ18 CH12 CD14 BU22 BO14 BK22 BK16 BJ14:BJ15 BF22 BG18 BE12 BB31 AX30 BA14">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK7 FM14 FJ30:FK30 FE30:FF30">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP7 FR22:FR23 FP30">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T15">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T15">
-    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3:AW15">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3:AW15">
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ3:BZ15">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ3:BZ15">
-    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC3:DC15">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC3:DC15">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EF3:EF15">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EF3:EF15">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI15">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI15">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI15">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FD21:FG21 C21 E21:M21 O21:R21 U21:AF21 FJ21:FT21">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C21 FD21:FG21 E21:M21 O21:R21 U21:AF21 FJ21:XFD21">
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:AU21 AX21:BG21 CA21:CJ21 DD21:DM21 EG21:EP21 BI21:BX21 CM21:DA21 DP21:ED21 ES21:FC21">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:T21">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:T21">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV20:AW21">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV20:AW21">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY20:BZ21">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY20:BZ21">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB20:DC21">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB20:DC21">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EE20:EF21">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EE20:EF21">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH20:FI21">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH20:FI21">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH21">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH21">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK21">
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK21">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL21">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL21">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN21:DO21">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN21:DO21">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ21:ER21">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ21:ER21">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -75112,27 +75110,27 @@
       <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.3828125" customWidth="1"/>
-    <col min="4" max="9" width="7.3828125" customWidth="1"/>
-    <col min="11" max="16" width="7.3828125" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="9" width="7.36328125" customWidth="1"/>
+    <col min="11" max="16" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="501" t="s">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="499" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
-      <c r="F1" s="501"/>
-      <c r="G1" s="501"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="501"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="499"/>
+      <c r="G1" s="499"/>
+      <c r="H1" s="499"/>
+      <c r="I1" s="499"/>
     </row>
-    <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -75174,11 +75172,11 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="493" t="s">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="475" t="s">
+      <c r="B3" s="500" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -75190,7 +75188,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="498" t="s">
+      <c r="J3" s="491" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="44"/>
@@ -75200,9 +75198,9 @@
       <c r="O3" s="45"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="494"/>
-      <c r="B4" s="476"/>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="489"/>
+      <c r="B4" s="492"/>
       <c r="C4" s="35" t="s">
         <v>16</v>
       </c>
@@ -75212,7 +75210,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="38"/>
-      <c r="J4" s="476"/>
+      <c r="J4" s="492"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
@@ -75220,9 +75218,9 @@
       <c r="O4" s="37"/>
       <c r="P4" s="38"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="494"/>
-      <c r="B5" s="476"/>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="489"/>
+      <c r="B5" s="492"/>
       <c r="C5" s="35" t="s">
         <v>3</v>
       </c>
@@ -75232,7 +75230,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="499"/>
+      <c r="J5" s="493"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
@@ -75240,9 +75238,9 @@
       <c r="O5" s="37"/>
       <c r="P5" s="38"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="494"/>
-      <c r="B6" s="476"/>
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="489"/>
+      <c r="B6" s="492"/>
       <c r="C6" s="35" t="s">
         <v>4</v>
       </c>
@@ -75252,7 +75250,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="499"/>
+      <c r="J6" s="493"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -75260,9 +75258,9 @@
       <c r="O6" s="37"/>
       <c r="P6" s="38"/>
     </row>
-    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="494"/>
-      <c r="B7" s="476"/>
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="489"/>
+      <c r="B7" s="492"/>
       <c r="C7" s="35" t="s">
         <v>5</v>
       </c>
@@ -75272,7 +75270,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="499"/>
+      <c r="J7" s="493"/>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
@@ -75280,9 +75278,9 @@
       <c r="O7" s="37"/>
       <c r="P7" s="38"/>
     </row>
-    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="494"/>
-      <c r="B8" s="476"/>
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="489"/>
+      <c r="B8" s="492"/>
       <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
@@ -75292,7 +75290,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="38"/>
-      <c r="J8" s="499"/>
+      <c r="J8" s="493"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
@@ -75300,9 +75298,9 @@
       <c r="O8" s="37"/>
       <c r="P8" s="38"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="494"/>
-      <c r="B9" s="477"/>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="489"/>
+      <c r="B9" s="501"/>
       <c r="C9" s="39" t="s">
         <v>7</v>
       </c>
@@ -75312,7 +75310,7 @@
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="500"/>
+      <c r="J9" s="494"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -75320,9 +75318,9 @@
       <c r="O9" s="41"/>
       <c r="P9" s="42"/>
     </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="494"/>
-      <c r="B10" s="478" t="s">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="489"/>
+      <c r="B10" s="495" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -75334,7 +75332,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="478" t="s">
+      <c r="J10" s="495" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="8"/>
@@ -75344,9 +75342,9 @@
       <c r="O10" s="22"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="494"/>
-      <c r="B11" s="479"/>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="489"/>
+      <c r="B11" s="496"/>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
@@ -75356,7 +75354,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="479"/>
+      <c r="J11" s="496"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -75364,9 +75362,9 @@
       <c r="O11" s="22"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="494"/>
-      <c r="B12" s="479"/>
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="489"/>
+      <c r="B12" s="496"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
@@ -75376,7 +75374,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="479"/>
+      <c r="J12" s="496"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -75384,9 +75382,9 @@
       <c r="O12" s="22"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="494"/>
-      <c r="B13" s="479"/>
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="489"/>
+      <c r="B13" s="496"/>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
@@ -75396,7 +75394,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="479"/>
+      <c r="J13" s="496"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -75404,9 +75402,9 @@
       <c r="O13" s="22"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="494"/>
-      <c r="B14" s="479"/>
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="489"/>
+      <c r="B14" s="496"/>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
@@ -75416,7 +75414,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="479"/>
+      <c r="J14" s="496"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -75424,9 +75422,9 @@
       <c r="O14" s="22"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="494"/>
-      <c r="B15" s="479"/>
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="489"/>
+      <c r="B15" s="496"/>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
@@ -75436,7 +75434,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="479"/>
+      <c r="J15" s="496"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -75444,9 +75442,9 @@
       <c r="O15" s="22"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="494"/>
-      <c r="B16" s="496" t="s">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="489"/>
+      <c r="B16" s="497" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -75468,9 +75466,9 @@
       <c r="O16" s="50"/>
       <c r="P16" s="51"/>
     </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="494"/>
-      <c r="B17" s="497"/>
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="489"/>
+      <c r="B17" s="498"/>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
@@ -75488,9 +75486,9 @@
       <c r="O17" s="50"/>
       <c r="P17" s="51"/>
     </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="494"/>
-      <c r="B18" s="497"/>
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="489"/>
+      <c r="B18" s="498"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
@@ -75508,9 +75506,9 @@
       <c r="O18" s="50"/>
       <c r="P18" s="51"/>
     </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="494"/>
-      <c r="B19" s="497"/>
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="489"/>
+      <c r="B19" s="498"/>
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
@@ -75528,9 +75526,9 @@
       <c r="O19" s="50"/>
       <c r="P19" s="51"/>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="494"/>
-      <c r="B20" s="483" t="s">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="489"/>
+      <c r="B20" s="478" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="52" t="s">
@@ -75543,9 +75541,9 @@
       <c r="H20" s="53"/>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="494"/>
-      <c r="B21" s="484"/>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="489"/>
+      <c r="B21" s="479"/>
       <c r="C21" s="55" t="s">
         <v>16</v>
       </c>
@@ -75556,9 +75554,9 @@
       <c r="H21" s="56"/>
       <c r="I21" s="57"/>
     </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="494"/>
-      <c r="B22" s="485"/>
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="489"/>
+      <c r="B22" s="480"/>
       <c r="C22" s="55" t="s">
         <v>3</v>
       </c>
@@ -75569,9 +75567,9 @@
       <c r="H22" s="56"/>
       <c r="I22" s="57"/>
     </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="494"/>
-      <c r="B23" s="485"/>
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="489"/>
+      <c r="B23" s="480"/>
       <c r="C23" s="55" t="s">
         <v>4</v>
       </c>
@@ -75582,9 +75580,9 @@
       <c r="H23" s="56"/>
       <c r="I23" s="57"/>
     </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="494"/>
-      <c r="B24" s="485"/>
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="489"/>
+      <c r="B24" s="480"/>
       <c r="C24" s="55" t="s">
         <v>5</v>
       </c>
@@ -75595,9 +75593,9 @@
       <c r="H24" s="56"/>
       <c r="I24" s="57"/>
     </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="494"/>
-      <c r="B25" s="485"/>
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="489"/>
+      <c r="B25" s="480"/>
       <c r="C25" s="55" t="s">
         <v>6</v>
       </c>
@@ -75608,9 +75606,9 @@
       <c r="H25" s="56"/>
       <c r="I25" s="57"/>
     </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="494"/>
-      <c r="B26" s="486"/>
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="489"/>
+      <c r="B26" s="481"/>
       <c r="C26" s="58" t="s">
         <v>7</v>
       </c>
@@ -75621,9 +75619,9 @@
       <c r="H26" s="59"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="494"/>
-      <c r="B27" s="487" t="s">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="489"/>
+      <c r="B27" s="482" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -75636,9 +75634,9 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="494"/>
-      <c r="B28" s="488"/>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="489"/>
+      <c r="B28" s="483"/>
       <c r="C28" s="7" t="s">
         <v>21</v>
       </c>
@@ -75649,9 +75647,9 @@
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="494"/>
-      <c r="B29" s="488"/>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="489"/>
+      <c r="B29" s="483"/>
       <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
@@ -75662,9 +75660,9 @@
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="494"/>
-      <c r="B30" s="488"/>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="489"/>
+      <c r="B30" s="483"/>
       <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
@@ -75675,9 +75673,9 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="494"/>
-      <c r="B31" s="488"/>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="489"/>
+      <c r="B31" s="483"/>
       <c r="C31" s="7" t="s">
         <v>24</v>
       </c>
@@ -75688,9 +75686,9 @@
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="495"/>
-      <c r="B32" s="488"/>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="490"/>
+      <c r="B32" s="483"/>
       <c r="C32" s="7" t="s">
         <v>25</v>
       </c>
@@ -75701,11 +75699,11 @@
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="480" t="s">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="475" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="489" t="s">
+      <c r="B33" s="484" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="61" t="s">
@@ -75718,9 +75716,9 @@
       <c r="H33" s="62"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="481"/>
-      <c r="B34" s="484"/>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="476"/>
+      <c r="B34" s="479"/>
       <c r="C34" s="55" t="s">
         <v>16</v>
       </c>
@@ -75731,9 +75729,9 @@
       <c r="H34" s="56"/>
       <c r="I34" s="57"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="481"/>
-      <c r="B35" s="484"/>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="476"/>
+      <c r="B35" s="479"/>
       <c r="C35" s="55" t="s">
         <v>3</v>
       </c>
@@ -75744,9 +75742,9 @@
       <c r="H35" s="56"/>
       <c r="I35" s="57"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="481"/>
-      <c r="B36" s="484"/>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="476"/>
+      <c r="B36" s="479"/>
       <c r="C36" s="55" t="s">
         <v>4</v>
       </c>
@@ -75757,9 +75755,9 @@
       <c r="H36" s="56"/>
       <c r="I36" s="57"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="481"/>
-      <c r="B37" s="484"/>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="476"/>
+      <c r="B37" s="479"/>
       <c r="C37" s="55" t="s">
         <v>5</v>
       </c>
@@ -75770,9 +75768,9 @@
       <c r="H37" s="56"/>
       <c r="I37" s="57"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="481"/>
-      <c r="B38" s="484"/>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="476"/>
+      <c r="B38" s="479"/>
       <c r="C38" s="55" t="s">
         <v>6</v>
       </c>
@@ -75783,9 +75781,9 @@
       <c r="H38" s="56"/>
       <c r="I38" s="57"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="481"/>
-      <c r="B39" s="490"/>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="476"/>
+      <c r="B39" s="485"/>
       <c r="C39" s="58" t="s">
         <v>7</v>
       </c>
@@ -75796,9 +75794,9 @@
       <c r="H39" s="59"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="481"/>
-      <c r="B40" s="487" t="s">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="476"/>
+      <c r="B40" s="482" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -75811,9 +75809,9 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="481"/>
-      <c r="B41" s="488"/>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="476"/>
+      <c r="B41" s="483"/>
       <c r="C41" s="7" t="s">
         <v>21</v>
       </c>
@@ -75824,9 +75822,9 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="481"/>
-      <c r="B42" s="488"/>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="476"/>
+      <c r="B42" s="483"/>
       <c r="C42" s="7" t="s">
         <v>22</v>
       </c>
@@ -75837,9 +75835,9 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="481"/>
-      <c r="B43" s="488"/>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="476"/>
+      <c r="B43" s="483"/>
       <c r="C43" s="7" t="s">
         <v>23</v>
       </c>
@@ -75850,9 +75848,9 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="481"/>
-      <c r="B44" s="488"/>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="476"/>
+      <c r="B44" s="483"/>
       <c r="C44" s="7" t="s">
         <v>24</v>
       </c>
@@ -75863,9 +75861,9 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="481"/>
-      <c r="B45" s="488"/>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="476"/>
+      <c r="B45" s="483"/>
       <c r="C45" s="7" t="s">
         <v>25</v>
       </c>
@@ -75876,9 +75874,9 @@
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="481"/>
-      <c r="B46" s="491" t="s">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="476"/>
+      <c r="B46" s="486" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="18" t="s">
@@ -75891,9 +75889,9 @@
       <c r="H46" s="18"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="481"/>
-      <c r="B47" s="492"/>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="476"/>
+      <c r="B47" s="487"/>
       <c r="C47" s="6" t="s">
         <v>9</v>
       </c>
@@ -75904,9 +75902,9 @@
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="481"/>
-      <c r="B48" s="492"/>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="476"/>
+      <c r="B48" s="487"/>
       <c r="C48" s="6" t="s">
         <v>10</v>
       </c>
@@ -75917,9 +75915,9 @@
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="481"/>
-      <c r="B49" s="492"/>
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="476"/>
+      <c r="B49" s="487"/>
       <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
@@ -75930,8 +75928,8 @@
       <c r="H49" s="20"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="481"/>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="476"/>
       <c r="B50" s="64" t="s">
         <v>17</v>
       </c>
@@ -75945,9 +75943,9 @@
       <c r="H50" s="66"/>
       <c r="I50" s="67"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="481"/>
-      <c r="B51" s="498" t="s">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="476"/>
+      <c r="B51" s="491" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="43" t="s">
@@ -75960,9 +75958,9 @@
       <c r="H51" s="45"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="481"/>
-      <c r="B52" s="476"/>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="476"/>
+      <c r="B52" s="492"/>
       <c r="C52" s="35" t="s">
         <v>16</v>
       </c>
@@ -75973,9 +75971,9 @@
       <c r="H52" s="37"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="481"/>
-      <c r="B53" s="499"/>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="476"/>
+      <c r="B53" s="493"/>
       <c r="C53" s="35" t="s">
         <v>3</v>
       </c>
@@ -75986,9 +75984,9 @@
       <c r="H53" s="37"/>
       <c r="I53" s="38"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="481"/>
-      <c r="B54" s="499"/>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="476"/>
+      <c r="B54" s="493"/>
       <c r="C54" s="35" t="s">
         <v>4</v>
       </c>
@@ -75999,9 +75997,9 @@
       <c r="H54" s="37"/>
       <c r="I54" s="38"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="481"/>
-      <c r="B55" s="499"/>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="476"/>
+      <c r="B55" s="493"/>
       <c r="C55" s="35" t="s">
         <v>5</v>
       </c>
@@ -76012,9 +76010,9 @@
       <c r="H55" s="37"/>
       <c r="I55" s="38"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="481"/>
-      <c r="B56" s="499"/>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="476"/>
+      <c r="B56" s="493"/>
       <c r="C56" s="35" t="s">
         <v>6</v>
       </c>
@@ -76025,9 +76023,9 @@
       <c r="H56" s="37"/>
       <c r="I56" s="38"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="481"/>
-      <c r="B57" s="500"/>
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="476"/>
+      <c r="B57" s="494"/>
       <c r="C57" s="39" t="s">
         <v>7</v>
       </c>
@@ -76038,9 +76036,9 @@
       <c r="H57" s="41"/>
       <c r="I57" s="42"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="481"/>
-      <c r="B58" s="478" t="s">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="476"/>
+      <c r="B58" s="495" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -76053,9 +76051,9 @@
       <c r="H58" s="22"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="481"/>
-      <c r="B59" s="479"/>
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="476"/>
+      <c r="B59" s="496"/>
       <c r="C59" s="4" t="s">
         <v>21</v>
       </c>
@@ -76066,9 +76064,9 @@
       <c r="H59" s="22"/>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="481"/>
-      <c r="B60" s="479"/>
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="476"/>
+      <c r="B60" s="496"/>
       <c r="C60" s="4" t="s">
         <v>22</v>
       </c>
@@ -76079,9 +76077,9 @@
       <c r="H60" s="22"/>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="481"/>
-      <c r="B61" s="479"/>
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="476"/>
+      <c r="B61" s="496"/>
       <c r="C61" s="4" t="s">
         <v>23</v>
       </c>
@@ -76092,9 +76090,9 @@
       <c r="H61" s="22"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="481"/>
-      <c r="B62" s="479"/>
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="476"/>
+      <c r="B62" s="496"/>
       <c r="C62" s="4" t="s">
         <v>24</v>
       </c>
@@ -76105,9 +76103,9 @@
       <c r="H62" s="22"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="482"/>
-      <c r="B63" s="479"/>
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="477"/>
+      <c r="B63" s="496"/>
       <c r="C63" s="4" t="s">
         <v>25</v>
       </c>
@@ -76118,11 +76116,11 @@
       <c r="H63" s="22"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="493" t="s">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="475" t="s">
+      <c r="B64" s="500" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="31" t="s">
@@ -76135,9 +76133,9 @@
       <c r="H64" s="33"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="494"/>
-      <c r="B65" s="476"/>
+    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="489"/>
+      <c r="B65" s="492"/>
       <c r="C65" s="35" t="s">
         <v>16</v>
       </c>
@@ -76148,9 +76146,9 @@
       <c r="H65" s="37"/>
       <c r="I65" s="38"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="494"/>
-      <c r="B66" s="476"/>
+    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="489"/>
+      <c r="B66" s="492"/>
       <c r="C66" s="35" t="s">
         <v>3</v>
       </c>
@@ -76161,9 +76159,9 @@
       <c r="H66" s="37"/>
       <c r="I66" s="38"/>
     </row>
-    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="494"/>
-      <c r="B67" s="476"/>
+    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="489"/>
+      <c r="B67" s="492"/>
       <c r="C67" s="35" t="s">
         <v>4</v>
       </c>
@@ -76174,9 +76172,9 @@
       <c r="H67" s="37"/>
       <c r="I67" s="38"/>
     </row>
-    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="494"/>
-      <c r="B68" s="476"/>
+    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="489"/>
+      <c r="B68" s="492"/>
       <c r="C68" s="35" t="s">
         <v>5</v>
       </c>
@@ -76187,9 +76185,9 @@
       <c r="H68" s="37"/>
       <c r="I68" s="38"/>
     </row>
-    <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="494"/>
-      <c r="B69" s="476"/>
+    <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="489"/>
+      <c r="B69" s="492"/>
       <c r="C69" s="35" t="s">
         <v>6</v>
       </c>
@@ -76200,9 +76198,9 @@
       <c r="H69" s="37"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="494"/>
-      <c r="B70" s="477"/>
+    <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="489"/>
+      <c r="B70" s="501"/>
       <c r="C70" s="39" t="s">
         <v>7</v>
       </c>
@@ -76213,9 +76211,9 @@
       <c r="H70" s="41"/>
       <c r="I70" s="42"/>
     </row>
-    <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="494"/>
-      <c r="B71" s="478" t="s">
+    <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="489"/>
+      <c r="B71" s="495" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -76228,9 +76226,9 @@
       <c r="H71" s="22"/>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="494"/>
-      <c r="B72" s="479"/>
+    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="489"/>
+      <c r="B72" s="496"/>
       <c r="C72" s="4" t="s">
         <v>21</v>
       </c>
@@ -76241,9 +76239,9 @@
       <c r="H72" s="22"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="494"/>
-      <c r="B73" s="479"/>
+    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="489"/>
+      <c r="B73" s="496"/>
       <c r="C73" s="4" t="s">
         <v>22</v>
       </c>
@@ -76254,9 +76252,9 @@
       <c r="H73" s="22"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="494"/>
-      <c r="B74" s="479"/>
+    <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="489"/>
+      <c r="B74" s="496"/>
       <c r="C74" s="4" t="s">
         <v>23</v>
       </c>
@@ -76267,9 +76265,9 @@
       <c r="H74" s="22"/>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="494"/>
-      <c r="B75" s="479"/>
+    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="489"/>
+      <c r="B75" s="496"/>
       <c r="C75" s="4" t="s">
         <v>24</v>
       </c>
@@ -76280,9 +76278,9 @@
       <c r="H75" s="22"/>
       <c r="I75" s="10"/>
     </row>
-    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="494"/>
-      <c r="B76" s="479"/>
+    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="489"/>
+      <c r="B76" s="496"/>
       <c r="C76" s="4" t="s">
         <v>25</v>
       </c>
@@ -76293,9 +76291,9 @@
       <c r="H76" s="22"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="494"/>
-      <c r="B77" s="496" t="s">
+    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="489"/>
+      <c r="B77" s="497" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -76308,9 +76306,9 @@
       <c r="H77" s="23"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="494"/>
-      <c r="B78" s="497"/>
+    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="489"/>
+      <c r="B78" s="498"/>
       <c r="C78" s="5" t="s">
         <v>9</v>
       </c>
@@ -76321,9 +76319,9 @@
       <c r="H78" s="24"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="494"/>
-      <c r="B79" s="497"/>
+    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="489"/>
+      <c r="B79" s="498"/>
       <c r="C79" s="5" t="s">
         <v>10</v>
       </c>
@@ -76334,9 +76332,9 @@
       <c r="H79" s="24"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="494"/>
-      <c r="B80" s="497"/>
+    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="489"/>
+      <c r="B80" s="498"/>
       <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
@@ -76347,8 +76345,8 @@
       <c r="H80" s="24"/>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="494"/>
+    <row r="81" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="489"/>
       <c r="B81" s="47" t="s">
         <v>17</v>
       </c>
@@ -76362,9 +76360,9 @@
       <c r="H81" s="50"/>
       <c r="I81" s="51"/>
     </row>
-    <row r="82" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="494"/>
-      <c r="B82" s="483" t="s">
+    <row r="82" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="489"/>
+      <c r="B82" s="478" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="52" t="s">
@@ -76377,9 +76375,9 @@
       <c r="H82" s="68"/>
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="494"/>
-      <c r="B83" s="484"/>
+    <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="489"/>
+      <c r="B83" s="479"/>
       <c r="C83" s="55" t="s">
         <v>16</v>
       </c>
@@ -76390,9 +76388,9 @@
       <c r="H83" s="69"/>
       <c r="I83" s="57"/>
     </row>
-    <row r="84" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A84" s="494"/>
-      <c r="B84" s="485"/>
+    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A84" s="489"/>
+      <c r="B84" s="480"/>
       <c r="C84" s="55" t="s">
         <v>3</v>
       </c>
@@ -76403,9 +76401,9 @@
       <c r="H84" s="69"/>
       <c r="I84" s="57"/>
     </row>
-    <row r="85" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A85" s="494"/>
-      <c r="B85" s="485"/>
+    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A85" s="489"/>
+      <c r="B85" s="480"/>
       <c r="C85" s="55" t="s">
         <v>4</v>
       </c>
@@ -76416,9 +76414,9 @@
       <c r="H85" s="69"/>
       <c r="I85" s="57"/>
     </row>
-    <row r="86" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A86" s="494"/>
-      <c r="B86" s="485"/>
+    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A86" s="489"/>
+      <c r="B86" s="480"/>
       <c r="C86" s="55" t="s">
         <v>5</v>
       </c>
@@ -76429,9 +76427,9 @@
       <c r="H86" s="69"/>
       <c r="I86" s="57"/>
     </row>
-    <row r="87" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A87" s="494"/>
-      <c r="B87" s="485"/>
+    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A87" s="489"/>
+      <c r="B87" s="480"/>
       <c r="C87" s="55" t="s">
         <v>6</v>
       </c>
@@ -76442,9 +76440,9 @@
       <c r="H87" s="69"/>
       <c r="I87" s="57"/>
     </row>
-    <row r="88" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A88" s="494"/>
-      <c r="B88" s="486"/>
+    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A88" s="489"/>
+      <c r="B88" s="481"/>
       <c r="C88" s="58" t="s">
         <v>7</v>
       </c>
@@ -76455,9 +76453,9 @@
       <c r="H88" s="70"/>
       <c r="I88" s="60"/>
     </row>
-    <row r="89" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A89" s="494"/>
-      <c r="B89" s="487" t="s">
+    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A89" s="489"/>
+      <c r="B89" s="482" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -76470,9 +76468,9 @@
       <c r="H89" s="25"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A90" s="494"/>
-      <c r="B90" s="488"/>
+    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A90" s="489"/>
+      <c r="B90" s="483"/>
       <c r="C90" s="7" t="s">
         <v>21</v>
       </c>
@@ -76483,9 +76481,9 @@
       <c r="H90" s="25"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A91" s="494"/>
-      <c r="B91" s="488"/>
+    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A91" s="489"/>
+      <c r="B91" s="483"/>
       <c r="C91" s="7" t="s">
         <v>22</v>
       </c>
@@ -76496,9 +76494,9 @@
       <c r="H91" s="25"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A92" s="494"/>
-      <c r="B92" s="488"/>
+    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A92" s="489"/>
+      <c r="B92" s="483"/>
       <c r="C92" s="7" t="s">
         <v>23</v>
       </c>
@@ -76509,9 +76507,9 @@
       <c r="H92" s="25"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A93" s="494"/>
-      <c r="B93" s="488"/>
+    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A93" s="489"/>
+      <c r="B93" s="483"/>
       <c r="C93" s="7" t="s">
         <v>24</v>
       </c>
@@ -76522,9 +76520,9 @@
       <c r="H93" s="25"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="495"/>
-      <c r="B94" s="488"/>
+    <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="490"/>
+      <c r="B94" s="483"/>
       <c r="C94" s="7" t="s">
         <v>25</v>
       </c>
@@ -76535,11 +76533,11 @@
       <c r="H94" s="25"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="480" t="s">
+    <row r="95" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="475" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="489" t="s">
+      <c r="B95" s="484" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="61" t="s">
@@ -76552,9 +76550,9 @@
       <c r="H95" s="71"/>
       <c r="I95" s="63"/>
     </row>
-    <row r="96" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A96" s="481"/>
-      <c r="B96" s="484"/>
+    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A96" s="476"/>
+      <c r="B96" s="479"/>
       <c r="C96" s="55" t="s">
         <v>16</v>
       </c>
@@ -76565,9 +76563,9 @@
       <c r="H96" s="69"/>
       <c r="I96" s="57"/>
     </row>
-    <row r="97" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A97" s="481"/>
-      <c r="B97" s="484"/>
+    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A97" s="476"/>
+      <c r="B97" s="479"/>
       <c r="C97" s="55" t="s">
         <v>3</v>
       </c>
@@ -76578,9 +76576,9 @@
       <c r="H97" s="69"/>
       <c r="I97" s="57"/>
     </row>
-    <row r="98" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A98" s="481"/>
-      <c r="B98" s="484"/>
+    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A98" s="476"/>
+      <c r="B98" s="479"/>
       <c r="C98" s="55" t="s">
         <v>4</v>
       </c>
@@ -76591,9 +76589,9 @@
       <c r="H98" s="69"/>
       <c r="I98" s="57"/>
     </row>
-    <row r="99" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A99" s="481"/>
-      <c r="B99" s="484"/>
+    <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A99" s="476"/>
+      <c r="B99" s="479"/>
       <c r="C99" s="55" t="s">
         <v>5</v>
       </c>
@@ -76604,9 +76602,9 @@
       <c r="H99" s="69"/>
       <c r="I99" s="57"/>
     </row>
-    <row r="100" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A100" s="481"/>
-      <c r="B100" s="484"/>
+    <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A100" s="476"/>
+      <c r="B100" s="479"/>
       <c r="C100" s="55" t="s">
         <v>6</v>
       </c>
@@ -76617,9 +76615,9 @@
       <c r="H100" s="69"/>
       <c r="I100" s="57"/>
     </row>
-    <row r="101" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A101" s="481"/>
-      <c r="B101" s="490"/>
+    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A101" s="476"/>
+      <c r="B101" s="485"/>
       <c r="C101" s="58" t="s">
         <v>7</v>
       </c>
@@ -76630,9 +76628,9 @@
       <c r="H101" s="70"/>
       <c r="I101" s="60"/>
     </row>
-    <row r="102" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A102" s="481"/>
-      <c r="B102" s="487" t="s">
+    <row r="102" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A102" s="476"/>
+      <c r="B102" s="482" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -76645,9 +76643,9 @@
       <c r="H102" s="25"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A103" s="481"/>
-      <c r="B103" s="488"/>
+    <row r="103" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A103" s="476"/>
+      <c r="B103" s="483"/>
       <c r="C103" s="7" t="s">
         <v>21</v>
       </c>
@@ -76658,9 +76656,9 @@
       <c r="H103" s="25"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A104" s="481"/>
-      <c r="B104" s="488"/>
+    <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A104" s="476"/>
+      <c r="B104" s="483"/>
       <c r="C104" s="7" t="s">
         <v>22</v>
       </c>
@@ -76671,9 +76669,9 @@
       <c r="H104" s="25"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A105" s="481"/>
-      <c r="B105" s="488"/>
+    <row r="105" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A105" s="476"/>
+      <c r="B105" s="483"/>
       <c r="C105" s="7" t="s">
         <v>23</v>
       </c>
@@ -76684,9 +76682,9 @@
       <c r="H105" s="25"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A106" s="481"/>
-      <c r="B106" s="488"/>
+    <row r="106" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A106" s="476"/>
+      <c r="B106" s="483"/>
       <c r="C106" s="7" t="s">
         <v>24</v>
       </c>
@@ -76697,9 +76695,9 @@
       <c r="H106" s="25"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A107" s="481"/>
-      <c r="B107" s="488"/>
+    <row r="107" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A107" s="476"/>
+      <c r="B107" s="483"/>
       <c r="C107" s="7" t="s">
         <v>25</v>
       </c>
@@ -76710,9 +76708,9 @@
       <c r="H107" s="25"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A108" s="481"/>
-      <c r="B108" s="491" t="s">
+    <row r="108" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A108" s="476"/>
+      <c r="B108" s="486" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="18" t="s">
@@ -76725,9 +76723,9 @@
       <c r="H108" s="26"/>
       <c r="I108" s="19"/>
     </row>
-    <row r="109" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A109" s="481"/>
-      <c r="B109" s="492"/>
+    <row r="109" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A109" s="476"/>
+      <c r="B109" s="487"/>
       <c r="C109" s="6" t="s">
         <v>9</v>
       </c>
@@ -76738,9 +76736,9 @@
       <c r="H109" s="27"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A110" s="481"/>
-      <c r="B110" s="492"/>
+    <row r="110" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A110" s="476"/>
+      <c r="B110" s="487"/>
       <c r="C110" s="6" t="s">
         <v>10</v>
       </c>
@@ -76751,9 +76749,9 @@
       <c r="H110" s="27"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A111" s="481"/>
-      <c r="B111" s="492"/>
+    <row r="111" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A111" s="476"/>
+      <c r="B111" s="487"/>
       <c r="C111" s="6" t="s">
         <v>12</v>
       </c>
@@ -76764,8 +76762,8 @@
       <c r="H111" s="27"/>
       <c r="I111" s="28"/>
     </row>
-    <row r="112" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="481"/>
+    <row r="112" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="476"/>
       <c r="B112" s="64" t="s">
         <v>17</v>
       </c>
@@ -76779,9 +76777,9 @@
       <c r="H112" s="72"/>
       <c r="I112" s="67"/>
     </row>
-    <row r="113" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="481"/>
-      <c r="B113" s="498" t="s">
+    <row r="113" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="476"/>
+      <c r="B113" s="491" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="43" t="s">
@@ -76794,9 +76792,9 @@
       <c r="H113" s="45"/>
       <c r="I113" s="46"/>
     </row>
-    <row r="114" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A114" s="481"/>
-      <c r="B114" s="476"/>
+    <row r="114" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A114" s="476"/>
+      <c r="B114" s="492"/>
       <c r="C114" s="35" t="s">
         <v>16</v>
       </c>
@@ -76807,9 +76805,9 @@
       <c r="H114" s="37"/>
       <c r="I114" s="38"/>
     </row>
-    <row r="115" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A115" s="481"/>
-      <c r="B115" s="499"/>
+    <row r="115" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A115" s="476"/>
+      <c r="B115" s="493"/>
       <c r="C115" s="35" t="s">
         <v>3</v>
       </c>
@@ -76820,9 +76818,9 @@
       <c r="H115" s="37"/>
       <c r="I115" s="38"/>
     </row>
-    <row r="116" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A116" s="481"/>
-      <c r="B116" s="499"/>
+    <row r="116" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A116" s="476"/>
+      <c r="B116" s="493"/>
       <c r="C116" s="35" t="s">
         <v>4</v>
       </c>
@@ -76833,9 +76831,9 @@
       <c r="H116" s="37"/>
       <c r="I116" s="38"/>
     </row>
-    <row r="117" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A117" s="481"/>
-      <c r="B117" s="499"/>
+    <row r="117" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A117" s="476"/>
+      <c r="B117" s="493"/>
       <c r="C117" s="35" t="s">
         <v>5</v>
       </c>
@@ -76846,9 +76844,9 @@
       <c r="H117" s="37"/>
       <c r="I117" s="38"/>
     </row>
-    <row r="118" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A118" s="481"/>
-      <c r="B118" s="499"/>
+    <row r="118" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A118" s="476"/>
+      <c r="B118" s="493"/>
       <c r="C118" s="35" t="s">
         <v>6</v>
       </c>
@@ -76859,9 +76857,9 @@
       <c r="H118" s="37"/>
       <c r="I118" s="38"/>
     </row>
-    <row r="119" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A119" s="481"/>
-      <c r="B119" s="500"/>
+    <row r="119" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A119" s="476"/>
+      <c r="B119" s="494"/>
       <c r="C119" s="39" t="s">
         <v>7</v>
       </c>
@@ -76872,9 +76870,9 @@
       <c r="H119" s="41"/>
       <c r="I119" s="42"/>
     </row>
-    <row r="120" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A120" s="481"/>
-      <c r="B120" s="478" t="s">
+    <row r="120" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A120" s="476"/>
+      <c r="B120" s="495" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -76887,9 +76885,9 @@
       <c r="H120" s="22"/>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A121" s="481"/>
-      <c r="B121" s="479"/>
+    <row r="121" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A121" s="476"/>
+      <c r="B121" s="496"/>
       <c r="C121" s="4" t="s">
         <v>21</v>
       </c>
@@ -76900,9 +76898,9 @@
       <c r="H121" s="22"/>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A122" s="481"/>
-      <c r="B122" s="479"/>
+    <row r="122" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A122" s="476"/>
+      <c r="B122" s="496"/>
       <c r="C122" s="4" t="s">
         <v>22</v>
       </c>
@@ -76913,9 +76911,9 @@
       <c r="H122" s="22"/>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A123" s="481"/>
-      <c r="B123" s="479"/>
+    <row r="123" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A123" s="476"/>
+      <c r="B123" s="496"/>
       <c r="C123" s="4" t="s">
         <v>23</v>
       </c>
@@ -76926,9 +76924,9 @@
       <c r="H123" s="22"/>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A124" s="481"/>
-      <c r="B124" s="479"/>
+    <row r="124" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A124" s="476"/>
+      <c r="B124" s="496"/>
       <c r="C124" s="4" t="s">
         <v>24</v>
       </c>
@@ -76939,9 +76937,9 @@
       <c r="H124" s="22"/>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="482"/>
-      <c r="B125" s="479"/>
+    <row r="125" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="477"/>
+      <c r="B125" s="496"/>
       <c r="C125" s="4" t="s">
         <v>25</v>
       </c>
@@ -76952,11 +76950,11 @@
       <c r="H125" s="22"/>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="493" t="s">
+    <row r="126" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="488" t="s">
         <v>30</v>
       </c>
-      <c r="B126" s="475" t="s">
+      <c r="B126" s="500" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="31" t="s">
@@ -76969,9 +76967,9 @@
       <c r="H126" s="33"/>
       <c r="I126" s="34"/>
     </row>
-    <row r="127" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A127" s="494"/>
-      <c r="B127" s="476"/>
+    <row r="127" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A127" s="489"/>
+      <c r="B127" s="492"/>
       <c r="C127" s="35" t="s">
         <v>16</v>
       </c>
@@ -76982,9 +76980,9 @@
       <c r="H127" s="37"/>
       <c r="I127" s="38"/>
     </row>
-    <row r="128" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A128" s="494"/>
-      <c r="B128" s="476"/>
+    <row r="128" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A128" s="489"/>
+      <c r="B128" s="492"/>
       <c r="C128" s="35" t="s">
         <v>3</v>
       </c>
@@ -76995,9 +76993,9 @@
       <c r="H128" s="37"/>
       <c r="I128" s="38"/>
     </row>
-    <row r="129" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A129" s="494"/>
-      <c r="B129" s="476"/>
+    <row r="129" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A129" s="489"/>
+      <c r="B129" s="492"/>
       <c r="C129" s="35" t="s">
         <v>4</v>
       </c>
@@ -77008,9 +77006,9 @@
       <c r="H129" s="37"/>
       <c r="I129" s="38"/>
     </row>
-    <row r="130" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A130" s="494"/>
-      <c r="B130" s="476"/>
+    <row r="130" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A130" s="489"/>
+      <c r="B130" s="492"/>
       <c r="C130" s="35" t="s">
         <v>5</v>
       </c>
@@ -77021,9 +77019,9 @@
       <c r="H130" s="37"/>
       <c r="I130" s="38"/>
     </row>
-    <row r="131" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A131" s="494"/>
-      <c r="B131" s="476"/>
+    <row r="131" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A131" s="489"/>
+      <c r="B131" s="492"/>
       <c r="C131" s="35" t="s">
         <v>6</v>
       </c>
@@ -77034,9 +77032,9 @@
       <c r="H131" s="37"/>
       <c r="I131" s="38"/>
     </row>
-    <row r="132" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A132" s="494"/>
-      <c r="B132" s="477"/>
+    <row r="132" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A132" s="489"/>
+      <c r="B132" s="501"/>
       <c r="C132" s="39" t="s">
         <v>7</v>
       </c>
@@ -77047,9 +77045,9 @@
       <c r="H132" s="41"/>
       <c r="I132" s="42"/>
     </row>
-    <row r="133" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A133" s="494"/>
-      <c r="B133" s="478" t="s">
+    <row r="133" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A133" s="489"/>
+      <c r="B133" s="495" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -77062,9 +77060,9 @@
       <c r="H133" s="22"/>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A134" s="494"/>
-      <c r="B134" s="479"/>
+    <row r="134" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A134" s="489"/>
+      <c r="B134" s="496"/>
       <c r="C134" s="4" t="s">
         <v>21</v>
       </c>
@@ -77075,9 +77073,9 @@
       <c r="H134" s="22"/>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A135" s="494"/>
-      <c r="B135" s="479"/>
+    <row r="135" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A135" s="489"/>
+      <c r="B135" s="496"/>
       <c r="C135" s="4" t="s">
         <v>22</v>
       </c>
@@ -77088,9 +77086,9 @@
       <c r="H135" s="22"/>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A136" s="494"/>
-      <c r="B136" s="479"/>
+    <row r="136" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A136" s="489"/>
+      <c r="B136" s="496"/>
       <c r="C136" s="4" t="s">
         <v>23</v>
       </c>
@@ -77101,9 +77099,9 @@
       <c r="H136" s="22"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A137" s="494"/>
-      <c r="B137" s="479"/>
+    <row r="137" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A137" s="489"/>
+      <c r="B137" s="496"/>
       <c r="C137" s="4" t="s">
         <v>24</v>
       </c>
@@ -77114,9 +77112,9 @@
       <c r="H137" s="22"/>
       <c r="I137" s="10"/>
     </row>
-    <row r="138" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A138" s="494"/>
-      <c r="B138" s="479"/>
+    <row r="138" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A138" s="489"/>
+      <c r="B138" s="496"/>
       <c r="C138" s="4" t="s">
         <v>25</v>
       </c>
@@ -77127,9 +77125,9 @@
       <c r="H138" s="22"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A139" s="494"/>
-      <c r="B139" s="496" t="s">
+    <row r="139" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A139" s="489"/>
+      <c r="B139" s="497" t="s">
         <v>13</v>
       </c>
       <c r="C139" s="11" t="s">
@@ -77142,9 +77140,9 @@
       <c r="H139" s="23"/>
       <c r="I139" s="12"/>
     </row>
-    <row r="140" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A140" s="494"/>
-      <c r="B140" s="497"/>
+    <row r="140" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A140" s="489"/>
+      <c r="B140" s="498"/>
       <c r="C140" s="5" t="s">
         <v>9</v>
       </c>
@@ -77155,9 +77153,9 @@
       <c r="H140" s="24"/>
       <c r="I140" s="14"/>
     </row>
-    <row r="141" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A141" s="494"/>
-      <c r="B141" s="497"/>
+    <row r="141" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A141" s="489"/>
+      <c r="B141" s="498"/>
       <c r="C141" s="5" t="s">
         <v>10</v>
       </c>
@@ -77168,9 +77166,9 @@
       <c r="H141" s="24"/>
       <c r="I141" s="14"/>
     </row>
-    <row r="142" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A142" s="494"/>
-      <c r="B142" s="497"/>
+    <row r="142" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A142" s="489"/>
+      <c r="B142" s="498"/>
       <c r="C142" s="5" t="s">
         <v>12</v>
       </c>
@@ -77181,8 +77179,8 @@
       <c r="H142" s="24"/>
       <c r="I142" s="29"/>
     </row>
-    <row r="143" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="494"/>
+    <row r="143" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="489"/>
       <c r="B143" s="47" t="s">
         <v>17</v>
       </c>
@@ -77196,9 +77194,9 @@
       <c r="H143" s="50"/>
       <c r="I143" s="51"/>
     </row>
-    <row r="144" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="494"/>
-      <c r="B144" s="483" t="s">
+    <row r="144" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="489"/>
+      <c r="B144" s="478" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="52" t="s">
@@ -77211,9 +77209,9 @@
       <c r="H144" s="68"/>
       <c r="I144" s="54"/>
     </row>
-    <row r="145" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A145" s="494"/>
-      <c r="B145" s="484"/>
+    <row r="145" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A145" s="489"/>
+      <c r="B145" s="479"/>
       <c r="C145" s="55" t="s">
         <v>16</v>
       </c>
@@ -77224,9 +77222,9 @@
       <c r="H145" s="69"/>
       <c r="I145" s="57"/>
     </row>
-    <row r="146" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A146" s="494"/>
-      <c r="B146" s="485"/>
+    <row r="146" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A146" s="489"/>
+      <c r="B146" s="480"/>
       <c r="C146" s="55" t="s">
         <v>3</v>
       </c>
@@ -77237,9 +77235,9 @@
       <c r="H146" s="69"/>
       <c r="I146" s="57"/>
     </row>
-    <row r="147" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A147" s="494"/>
-      <c r="B147" s="485"/>
+    <row r="147" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A147" s="489"/>
+      <c r="B147" s="480"/>
       <c r="C147" s="55" t="s">
         <v>4</v>
       </c>
@@ -77250,9 +77248,9 @@
       <c r="H147" s="69"/>
       <c r="I147" s="57"/>
     </row>
-    <row r="148" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A148" s="494"/>
-      <c r="B148" s="485"/>
+    <row r="148" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A148" s="489"/>
+      <c r="B148" s="480"/>
       <c r="C148" s="55" t="s">
         <v>5</v>
       </c>
@@ -77263,9 +77261,9 @@
       <c r="H148" s="69"/>
       <c r="I148" s="57"/>
     </row>
-    <row r="149" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A149" s="494"/>
-      <c r="B149" s="485"/>
+    <row r="149" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A149" s="489"/>
+      <c r="B149" s="480"/>
       <c r="C149" s="55" t="s">
         <v>6</v>
       </c>
@@ -77276,9 +77274,9 @@
       <c r="H149" s="69"/>
       <c r="I149" s="57"/>
     </row>
-    <row r="150" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A150" s="494"/>
-      <c r="B150" s="486"/>
+    <row r="150" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A150" s="489"/>
+      <c r="B150" s="481"/>
       <c r="C150" s="58" t="s">
         <v>7</v>
       </c>
@@ -77289,9 +77287,9 @@
       <c r="H150" s="70"/>
       <c r="I150" s="60"/>
     </row>
-    <row r="151" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A151" s="494"/>
-      <c r="B151" s="487" t="s">
+    <row r="151" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A151" s="489"/>
+      <c r="B151" s="482" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="7" t="s">
@@ -77304,9 +77302,9 @@
       <c r="H151" s="25"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A152" s="494"/>
-      <c r="B152" s="488"/>
+    <row r="152" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A152" s="489"/>
+      <c r="B152" s="483"/>
       <c r="C152" s="7" t="s">
         <v>21</v>
       </c>
@@ -77317,9 +77315,9 @@
       <c r="H152" s="25"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A153" s="494"/>
-      <c r="B153" s="488"/>
+    <row r="153" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A153" s="489"/>
+      <c r="B153" s="483"/>
       <c r="C153" s="7" t="s">
         <v>22</v>
       </c>
@@ -77330,9 +77328,9 @@
       <c r="H153" s="25"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A154" s="494"/>
-      <c r="B154" s="488"/>
+    <row r="154" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A154" s="489"/>
+      <c r="B154" s="483"/>
       <c r="C154" s="7" t="s">
         <v>23</v>
       </c>
@@ -77343,9 +77341,9 @@
       <c r="H154" s="25"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A155" s="494"/>
-      <c r="B155" s="488"/>
+    <row r="155" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A155" s="489"/>
+      <c r="B155" s="483"/>
       <c r="C155" s="7" t="s">
         <v>24</v>
       </c>
@@ -77356,9 +77354,9 @@
       <c r="H155" s="25"/>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="495"/>
-      <c r="B156" s="488"/>
+    <row r="156" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="490"/>
+      <c r="B156" s="483"/>
       <c r="C156" s="7" t="s">
         <v>25</v>
       </c>
@@ -77369,11 +77367,11 @@
       <c r="H156" s="25"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="480" t="s">
+    <row r="157" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="475" t="s">
         <v>31</v>
       </c>
-      <c r="B157" s="489" t="s">
+      <c r="B157" s="484" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="61" t="s">
@@ -77386,9 +77384,9 @@
       <c r="H157" s="71"/>
       <c r="I157" s="63"/>
     </row>
-    <row r="158" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A158" s="481"/>
-      <c r="B158" s="484"/>
+    <row r="158" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A158" s="476"/>
+      <c r="B158" s="479"/>
       <c r="C158" s="55" t="s">
         <v>16</v>
       </c>
@@ -77399,9 +77397,9 @@
       <c r="H158" s="69"/>
       <c r="I158" s="57"/>
     </row>
-    <row r="159" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A159" s="481"/>
-      <c r="B159" s="484"/>
+    <row r="159" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A159" s="476"/>
+      <c r="B159" s="479"/>
       <c r="C159" s="55" t="s">
         <v>3</v>
       </c>
@@ -77412,9 +77410,9 @@
       <c r="H159" s="69"/>
       <c r="I159" s="57"/>
     </row>
-    <row r="160" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A160" s="481"/>
-      <c r="B160" s="484"/>
+    <row r="160" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A160" s="476"/>
+      <c r="B160" s="479"/>
       <c r="C160" s="55" t="s">
         <v>4</v>
       </c>
@@ -77425,9 +77423,9 @@
       <c r="H160" s="69"/>
       <c r="I160" s="57"/>
     </row>
-    <row r="161" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A161" s="481"/>
-      <c r="B161" s="484"/>
+    <row r="161" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A161" s="476"/>
+      <c r="B161" s="479"/>
       <c r="C161" s="55" t="s">
         <v>5</v>
       </c>
@@ -77438,9 +77436,9 @@
       <c r="H161" s="69"/>
       <c r="I161" s="57"/>
     </row>
-    <row r="162" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A162" s="481"/>
-      <c r="B162" s="484"/>
+    <row r="162" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A162" s="476"/>
+      <c r="B162" s="479"/>
       <c r="C162" s="55" t="s">
         <v>6</v>
       </c>
@@ -77451,9 +77449,9 @@
       <c r="H162" s="69"/>
       <c r="I162" s="57"/>
     </row>
-    <row r="163" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A163" s="481"/>
-      <c r="B163" s="490"/>
+    <row r="163" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A163" s="476"/>
+      <c r="B163" s="485"/>
       <c r="C163" s="58" t="s">
         <v>7</v>
       </c>
@@ -77464,9 +77462,9 @@
       <c r="H163" s="70"/>
       <c r="I163" s="60"/>
     </row>
-    <row r="164" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A164" s="481"/>
-      <c r="B164" s="487" t="s">
+    <row r="164" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A164" s="476"/>
+      <c r="B164" s="482" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -77479,9 +77477,9 @@
       <c r="H164" s="25"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A165" s="481"/>
-      <c r="B165" s="488"/>
+    <row r="165" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A165" s="476"/>
+      <c r="B165" s="483"/>
       <c r="C165" s="7" t="s">
         <v>21</v>
       </c>
@@ -77492,9 +77490,9 @@
       <c r="H165" s="25"/>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A166" s="481"/>
-      <c r="B166" s="488"/>
+    <row r="166" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A166" s="476"/>
+      <c r="B166" s="483"/>
       <c r="C166" s="7" t="s">
         <v>22</v>
       </c>
@@ -77505,9 +77503,9 @@
       <c r="H166" s="25"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A167" s="481"/>
-      <c r="B167" s="488"/>
+    <row r="167" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A167" s="476"/>
+      <c r="B167" s="483"/>
       <c r="C167" s="7" t="s">
         <v>23</v>
       </c>
@@ -77518,9 +77516,9 @@
       <c r="H167" s="25"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A168" s="481"/>
-      <c r="B168" s="488"/>
+    <row r="168" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A168" s="476"/>
+      <c r="B168" s="483"/>
       <c r="C168" s="7" t="s">
         <v>24</v>
       </c>
@@ -77531,9 +77529,9 @@
       <c r="H168" s="25"/>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A169" s="481"/>
-      <c r="B169" s="488"/>
+    <row r="169" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A169" s="476"/>
+      <c r="B169" s="483"/>
       <c r="C169" s="7" t="s">
         <v>25</v>
       </c>
@@ -77544,9 +77542,9 @@
       <c r="H169" s="25"/>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A170" s="481"/>
-      <c r="B170" s="491" t="s">
+    <row r="170" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A170" s="476"/>
+      <c r="B170" s="486" t="s">
         <v>13</v>
       </c>
       <c r="C170" s="18" t="s">
@@ -77559,9 +77557,9 @@
       <c r="H170" s="26"/>
       <c r="I170" s="19"/>
     </row>
-    <row r="171" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A171" s="481"/>
-      <c r="B171" s="492"/>
+    <row r="171" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A171" s="476"/>
+      <c r="B171" s="487"/>
       <c r="C171" s="6" t="s">
         <v>9</v>
       </c>
@@ -77572,9 +77570,9 @@
       <c r="H171" s="27"/>
       <c r="I171" s="21"/>
     </row>
-    <row r="172" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A172" s="481"/>
-      <c r="B172" s="492"/>
+    <row r="172" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A172" s="476"/>
+      <c r="B172" s="487"/>
       <c r="C172" s="6" t="s">
         <v>10</v>
       </c>
@@ -77585,9 +77583,9 @@
       <c r="H172" s="27"/>
       <c r="I172" s="21"/>
     </row>
-    <row r="173" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A173" s="481"/>
-      <c r="B173" s="492"/>
+    <row r="173" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A173" s="476"/>
+      <c r="B173" s="487"/>
       <c r="C173" s="6" t="s">
         <v>12</v>
       </c>
@@ -77598,8 +77596,8 @@
       <c r="H173" s="27"/>
       <c r="I173" s="28"/>
     </row>
-    <row r="174" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="481"/>
+    <row r="174" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="476"/>
       <c r="B174" s="64" t="s">
         <v>17</v>
       </c>
@@ -77613,9 +77611,9 @@
       <c r="H174" s="72"/>
       <c r="I174" s="67"/>
     </row>
-    <row r="175" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="481"/>
-      <c r="B175" s="498" t="s">
+    <row r="175" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="476"/>
+      <c r="B175" s="491" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="43" t="s">
@@ -77628,9 +77626,9 @@
       <c r="H175" s="45"/>
       <c r="I175" s="46"/>
     </row>
-    <row r="176" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A176" s="481"/>
-      <c r="B176" s="476"/>
+    <row r="176" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A176" s="476"/>
+      <c r="B176" s="492"/>
       <c r="C176" s="35" t="s">
         <v>16</v>
       </c>
@@ -77641,9 +77639,9 @@
       <c r="H176" s="37"/>
       <c r="I176" s="38"/>
     </row>
-    <row r="177" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A177" s="481"/>
-      <c r="B177" s="499"/>
+    <row r="177" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A177" s="476"/>
+      <c r="B177" s="493"/>
       <c r="C177" s="35" t="s">
         <v>3</v>
       </c>
@@ -77654,9 +77652,9 @@
       <c r="H177" s="37"/>
       <c r="I177" s="38"/>
     </row>
-    <row r="178" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A178" s="481"/>
-      <c r="B178" s="499"/>
+    <row r="178" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A178" s="476"/>
+      <c r="B178" s="493"/>
       <c r="C178" s="35" t="s">
         <v>4</v>
       </c>
@@ -77667,9 +77665,9 @@
       <c r="H178" s="37"/>
       <c r="I178" s="38"/>
     </row>
-    <row r="179" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A179" s="481"/>
-      <c r="B179" s="499"/>
+    <row r="179" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A179" s="476"/>
+      <c r="B179" s="493"/>
       <c r="C179" s="35" t="s">
         <v>5</v>
       </c>
@@ -77680,9 +77678,9 @@
       <c r="H179" s="37"/>
       <c r="I179" s="38"/>
     </row>
-    <row r="180" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A180" s="481"/>
-      <c r="B180" s="499"/>
+    <row r="180" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A180" s="476"/>
+      <c r="B180" s="493"/>
       <c r="C180" s="35" t="s">
         <v>6</v>
       </c>
@@ -77693,9 +77691,9 @@
       <c r="H180" s="37"/>
       <c r="I180" s="38"/>
     </row>
-    <row r="181" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A181" s="481"/>
-      <c r="B181" s="500"/>
+    <row r="181" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A181" s="476"/>
+      <c r="B181" s="494"/>
       <c r="C181" s="39" t="s">
         <v>7</v>
       </c>
@@ -77706,9 +77704,9 @@
       <c r="H181" s="41"/>
       <c r="I181" s="42"/>
     </row>
-    <row r="182" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A182" s="481"/>
-      <c r="B182" s="478" t="s">
+    <row r="182" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A182" s="476"/>
+      <c r="B182" s="495" t="s">
         <v>2</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -77721,9 +77719,9 @@
       <c r="H182" s="22"/>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A183" s="481"/>
-      <c r="B183" s="479"/>
+    <row r="183" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A183" s="476"/>
+      <c r="B183" s="496"/>
       <c r="C183" s="4" t="s">
         <v>21</v>
       </c>
@@ -77734,9 +77732,9 @@
       <c r="H183" s="22"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A184" s="481"/>
-      <c r="B184" s="479"/>
+    <row r="184" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A184" s="476"/>
+      <c r="B184" s="496"/>
       <c r="C184" s="4" t="s">
         <v>22</v>
       </c>
@@ -77747,9 +77745,9 @@
       <c r="H184" s="22"/>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A185" s="481"/>
-      <c r="B185" s="479"/>
+    <row r="185" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A185" s="476"/>
+      <c r="B185" s="496"/>
       <c r="C185" s="4" t="s">
         <v>23</v>
       </c>
@@ -77760,9 +77758,9 @@
       <c r="H185" s="22"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A186" s="481"/>
-      <c r="B186" s="479"/>
+    <row r="186" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A186" s="476"/>
+      <c r="B186" s="496"/>
       <c r="C186" s="4" t="s">
         <v>24</v>
       </c>
@@ -77773,9 +77771,9 @@
       <c r="H186" s="22"/>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="482"/>
-      <c r="B187" s="479"/>
+    <row r="187" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="477"/>
+      <c r="B187" s="496"/>
       <c r="C187" s="4" t="s">
         <v>25</v>
       </c>
@@ -77786,11 +77784,11 @@
       <c r="H187" s="22"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="493" t="s">
+    <row r="188" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="488" t="s">
         <v>32</v>
       </c>
-      <c r="B188" s="475" t="s">
+      <c r="B188" s="500" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="31" t="s">
@@ -77803,9 +77801,9 @@
       <c r="H188" s="33"/>
       <c r="I188" s="34"/>
     </row>
-    <row r="189" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A189" s="494"/>
-      <c r="B189" s="476"/>
+    <row r="189" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A189" s="489"/>
+      <c r="B189" s="492"/>
       <c r="C189" s="35" t="s">
         <v>16</v>
       </c>
@@ -77816,9 +77814,9 @@
       <c r="H189" s="37"/>
       <c r="I189" s="38"/>
     </row>
-    <row r="190" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A190" s="494"/>
-      <c r="B190" s="476"/>
+    <row r="190" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A190" s="489"/>
+      <c r="B190" s="492"/>
       <c r="C190" s="35" t="s">
         <v>3</v>
       </c>
@@ -77829,9 +77827,9 @@
       <c r="H190" s="37"/>
       <c r="I190" s="38"/>
     </row>
-    <row r="191" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A191" s="494"/>
-      <c r="B191" s="476"/>
+    <row r="191" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A191" s="489"/>
+      <c r="B191" s="492"/>
       <c r="C191" s="35" t="s">
         <v>4</v>
       </c>
@@ -77842,9 +77840,9 @@
       <c r="H191" s="37"/>
       <c r="I191" s="38"/>
     </row>
-    <row r="192" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A192" s="494"/>
-      <c r="B192" s="476"/>
+    <row r="192" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A192" s="489"/>
+      <c r="B192" s="492"/>
       <c r="C192" s="35" t="s">
         <v>5</v>
       </c>
@@ -77855,9 +77853,9 @@
       <c r="H192" s="37"/>
       <c r="I192" s="38"/>
     </row>
-    <row r="193" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A193" s="494"/>
-      <c r="B193" s="476"/>
+    <row r="193" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A193" s="489"/>
+      <c r="B193" s="492"/>
       <c r="C193" s="35" t="s">
         <v>6</v>
       </c>
@@ -77868,9 +77866,9 @@
       <c r="H193" s="37"/>
       <c r="I193" s="38"/>
     </row>
-    <row r="194" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A194" s="494"/>
-      <c r="B194" s="477"/>
+    <row r="194" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A194" s="489"/>
+      <c r="B194" s="501"/>
       <c r="C194" s="39" t="s">
         <v>7</v>
       </c>
@@ -77881,9 +77879,9 @@
       <c r="H194" s="41"/>
       <c r="I194" s="42"/>
     </row>
-    <row r="195" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A195" s="494"/>
-      <c r="B195" s="478" t="s">
+    <row r="195" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A195" s="489"/>
+      <c r="B195" s="495" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -77896,9 +77894,9 @@
       <c r="H195" s="22"/>
       <c r="I195" s="10"/>
     </row>
-    <row r="196" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A196" s="494"/>
-      <c r="B196" s="479"/>
+    <row r="196" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A196" s="489"/>
+      <c r="B196" s="496"/>
       <c r="C196" s="4" t="s">
         <v>21</v>
       </c>
@@ -77909,9 +77907,9 @@
       <c r="H196" s="22"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A197" s="494"/>
-      <c r="B197" s="479"/>
+    <row r="197" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A197" s="489"/>
+      <c r="B197" s="496"/>
       <c r="C197" s="4" t="s">
         <v>22</v>
       </c>
@@ -77922,9 +77920,9 @@
       <c r="H197" s="22"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A198" s="494"/>
-      <c r="B198" s="479"/>
+    <row r="198" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A198" s="489"/>
+      <c r="B198" s="496"/>
       <c r="C198" s="4" t="s">
         <v>23</v>
       </c>
@@ -77935,9 +77933,9 @@
       <c r="H198" s="22"/>
       <c r="I198" s="10"/>
     </row>
-    <row r="199" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A199" s="494"/>
-      <c r="B199" s="479"/>
+    <row r="199" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A199" s="489"/>
+      <c r="B199" s="496"/>
       <c r="C199" s="4" t="s">
         <v>24</v>
       </c>
@@ -77948,9 +77946,9 @@
       <c r="H199" s="22"/>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A200" s="494"/>
-      <c r="B200" s="479"/>
+    <row r="200" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A200" s="489"/>
+      <c r="B200" s="496"/>
       <c r="C200" s="4" t="s">
         <v>25</v>
       </c>
@@ -77961,9 +77959,9 @@
       <c r="H200" s="22"/>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A201" s="494"/>
-      <c r="B201" s="496" t="s">
+    <row r="201" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A201" s="489"/>
+      <c r="B201" s="497" t="s">
         <v>13</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -77976,9 +77974,9 @@
       <c r="H201" s="23"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A202" s="494"/>
-      <c r="B202" s="497"/>
+    <row r="202" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A202" s="489"/>
+      <c r="B202" s="498"/>
       <c r="C202" s="5" t="s">
         <v>9</v>
       </c>
@@ -77989,9 +77987,9 @@
       <c r="H202" s="24"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A203" s="494"/>
-      <c r="B203" s="497"/>
+    <row r="203" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A203" s="489"/>
+      <c r="B203" s="498"/>
       <c r="C203" s="5" t="s">
         <v>10</v>
       </c>
@@ -78002,9 +78000,9 @@
       <c r="H203" s="24"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A204" s="494"/>
-      <c r="B204" s="497"/>
+    <row r="204" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A204" s="489"/>
+      <c r="B204" s="498"/>
       <c r="C204" s="5" t="s">
         <v>12</v>
       </c>
@@ -78015,8 +78013,8 @@
       <c r="H204" s="24"/>
       <c r="I204" s="29"/>
     </row>
-    <row r="205" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="494"/>
+    <row r="205" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="489"/>
       <c r="B205" s="47" t="s">
         <v>17</v>
       </c>
@@ -78030,9 +78028,9 @@
       <c r="H205" s="50"/>
       <c r="I205" s="51"/>
     </row>
-    <row r="206" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="494"/>
-      <c r="B206" s="483" t="s">
+    <row r="206" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="489"/>
+      <c r="B206" s="478" t="s">
         <v>2</v>
       </c>
       <c r="C206" s="52" t="s">
@@ -78045,9 +78043,9 @@
       <c r="H206" s="68"/>
       <c r="I206" s="54"/>
     </row>
-    <row r="207" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A207" s="494"/>
-      <c r="B207" s="484"/>
+    <row r="207" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A207" s="489"/>
+      <c r="B207" s="479"/>
       <c r="C207" s="55" t="s">
         <v>16</v>
       </c>
@@ -78058,9 +78056,9 @@
       <c r="H207" s="69"/>
       <c r="I207" s="57"/>
     </row>
-    <row r="208" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A208" s="494"/>
-      <c r="B208" s="485"/>
+    <row r="208" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A208" s="489"/>
+      <c r="B208" s="480"/>
       <c r="C208" s="55" t="s">
         <v>3</v>
       </c>
@@ -78071,9 +78069,9 @@
       <c r="H208" s="69"/>
       <c r="I208" s="57"/>
     </row>
-    <row r="209" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A209" s="494"/>
-      <c r="B209" s="485"/>
+    <row r="209" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A209" s="489"/>
+      <c r="B209" s="480"/>
       <c r="C209" s="55" t="s">
         <v>4</v>
       </c>
@@ -78084,9 +78082,9 @@
       <c r="H209" s="69"/>
       <c r="I209" s="57"/>
     </row>
-    <row r="210" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A210" s="494"/>
-      <c r="B210" s="485"/>
+    <row r="210" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A210" s="489"/>
+      <c r="B210" s="480"/>
       <c r="C210" s="55" t="s">
         <v>5</v>
       </c>
@@ -78097,9 +78095,9 @@
       <c r="H210" s="69"/>
       <c r="I210" s="57"/>
     </row>
-    <row r="211" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A211" s="494"/>
-      <c r="B211" s="485"/>
+    <row r="211" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A211" s="489"/>
+      <c r="B211" s="480"/>
       <c r="C211" s="55" t="s">
         <v>6</v>
       </c>
@@ -78110,9 +78108,9 @@
       <c r="H211" s="69"/>
       <c r="I211" s="57"/>
     </row>
-    <row r="212" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A212" s="494"/>
-      <c r="B212" s="486"/>
+    <row r="212" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A212" s="489"/>
+      <c r="B212" s="481"/>
       <c r="C212" s="58" t="s">
         <v>7</v>
       </c>
@@ -78123,9 +78121,9 @@
       <c r="H212" s="70"/>
       <c r="I212" s="60"/>
     </row>
-    <row r="213" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A213" s="494"/>
-      <c r="B213" s="487" t="s">
+    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A213" s="489"/>
+      <c r="B213" s="482" t="s">
         <v>2</v>
       </c>
       <c r="C213" s="7" t="s">
@@ -78138,9 +78136,9 @@
       <c r="H213" s="25"/>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A214" s="494"/>
-      <c r="B214" s="488"/>
+    <row r="214" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A214" s="489"/>
+      <c r="B214" s="483"/>
       <c r="C214" s="7" t="s">
         <v>21</v>
       </c>
@@ -78151,9 +78149,9 @@
       <c r="H214" s="25"/>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A215" s="494"/>
-      <c r="B215" s="488"/>
+    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A215" s="489"/>
+      <c r="B215" s="483"/>
       <c r="C215" s="7" t="s">
         <v>22</v>
       </c>
@@ -78164,9 +78162,9 @@
       <c r="H215" s="25"/>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A216" s="494"/>
-      <c r="B216" s="488"/>
+    <row r="216" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A216" s="489"/>
+      <c r="B216" s="483"/>
       <c r="C216" s="7" t="s">
         <v>23</v>
       </c>
@@ -78177,9 +78175,9 @@
       <c r="H216" s="25"/>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A217" s="494"/>
-      <c r="B217" s="488"/>
+    <row r="217" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A217" s="489"/>
+      <c r="B217" s="483"/>
       <c r="C217" s="7" t="s">
         <v>24</v>
       </c>
@@ -78190,9 +78188,9 @@
       <c r="H217" s="25"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="495"/>
-      <c r="B218" s="488"/>
+    <row r="218" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="490"/>
+      <c r="B218" s="483"/>
       <c r="C218" s="7" t="s">
         <v>25</v>
       </c>
@@ -78203,11 +78201,11 @@
       <c r="H218" s="25"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="480" t="s">
+    <row r="219" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="475" t="s">
         <v>33</v>
       </c>
-      <c r="B219" s="489" t="s">
+      <c r="B219" s="484" t="s">
         <v>8</v>
       </c>
       <c r="C219" s="61" t="s">
@@ -78220,9 +78218,9 @@
       <c r="H219" s="71"/>
       <c r="I219" s="63"/>
     </row>
-    <row r="220" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A220" s="481"/>
-      <c r="B220" s="484"/>
+    <row r="220" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A220" s="476"/>
+      <c r="B220" s="479"/>
       <c r="C220" s="55" t="s">
         <v>16</v>
       </c>
@@ -78233,9 +78231,9 @@
       <c r="H220" s="69"/>
       <c r="I220" s="57"/>
     </row>
-    <row r="221" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A221" s="481"/>
-      <c r="B221" s="484"/>
+    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A221" s="476"/>
+      <c r="B221" s="479"/>
       <c r="C221" s="55" t="s">
         <v>3</v>
       </c>
@@ -78246,9 +78244,9 @@
       <c r="H221" s="69"/>
       <c r="I221" s="57"/>
     </row>
-    <row r="222" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A222" s="481"/>
-      <c r="B222" s="484"/>
+    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A222" s="476"/>
+      <c r="B222" s="479"/>
       <c r="C222" s="55" t="s">
         <v>4</v>
       </c>
@@ -78259,9 +78257,9 @@
       <c r="H222" s="69"/>
       <c r="I222" s="57"/>
     </row>
-    <row r="223" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A223" s="481"/>
-      <c r="B223" s="484"/>
+    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A223" s="476"/>
+      <c r="B223" s="479"/>
       <c r="C223" s="55" t="s">
         <v>5</v>
       </c>
@@ -78272,9 +78270,9 @@
       <c r="H223" s="69"/>
       <c r="I223" s="57"/>
     </row>
-    <row r="224" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A224" s="481"/>
-      <c r="B224" s="484"/>
+    <row r="224" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A224" s="476"/>
+      <c r="B224" s="479"/>
       <c r="C224" s="55" t="s">
         <v>6</v>
       </c>
@@ -78285,9 +78283,9 @@
       <c r="H224" s="69"/>
       <c r="I224" s="57"/>
     </row>
-    <row r="225" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A225" s="481"/>
-      <c r="B225" s="490"/>
+    <row r="225" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A225" s="476"/>
+      <c r="B225" s="485"/>
       <c r="C225" s="58" t="s">
         <v>7</v>
       </c>
@@ -78298,9 +78296,9 @@
       <c r="H225" s="70"/>
       <c r="I225" s="60"/>
     </row>
-    <row r="226" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A226" s="481"/>
-      <c r="B226" s="487" t="s">
+    <row r="226" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A226" s="476"/>
+      <c r="B226" s="482" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -78313,9 +78311,9 @@
       <c r="H226" s="25"/>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A227" s="481"/>
-      <c r="B227" s="488"/>
+    <row r="227" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A227" s="476"/>
+      <c r="B227" s="483"/>
       <c r="C227" s="7" t="s">
         <v>21</v>
       </c>
@@ -78326,9 +78324,9 @@
       <c r="H227" s="25"/>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A228" s="481"/>
-      <c r="B228" s="488"/>
+    <row r="228" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A228" s="476"/>
+      <c r="B228" s="483"/>
       <c r="C228" s="7" t="s">
         <v>22</v>
       </c>
@@ -78339,9 +78337,9 @@
       <c r="H228" s="25"/>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A229" s="481"/>
-      <c r="B229" s="488"/>
+    <row r="229" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A229" s="476"/>
+      <c r="B229" s="483"/>
       <c r="C229" s="7" t="s">
         <v>23</v>
       </c>
@@ -78352,9 +78350,9 @@
       <c r="H229" s="25"/>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A230" s="481"/>
-      <c r="B230" s="488"/>
+    <row r="230" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A230" s="476"/>
+      <c r="B230" s="483"/>
       <c r="C230" s="7" t="s">
         <v>24</v>
       </c>
@@ -78365,9 +78363,9 @@
       <c r="H230" s="25"/>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A231" s="481"/>
-      <c r="B231" s="488"/>
+    <row r="231" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A231" s="476"/>
+      <c r="B231" s="483"/>
       <c r="C231" s="7" t="s">
         <v>25</v>
       </c>
@@ -78378,9 +78376,9 @@
       <c r="H231" s="25"/>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A232" s="481"/>
-      <c r="B232" s="491" t="s">
+    <row r="232" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A232" s="476"/>
+      <c r="B232" s="486" t="s">
         <v>13</v>
       </c>
       <c r="C232" s="18" t="s">
@@ -78393,9 +78391,9 @@
       <c r="H232" s="26"/>
       <c r="I232" s="19"/>
     </row>
-    <row r="233" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A233" s="481"/>
-      <c r="B233" s="492"/>
+    <row r="233" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A233" s="476"/>
+      <c r="B233" s="487"/>
       <c r="C233" s="6" t="s">
         <v>9</v>
       </c>
@@ -78406,9 +78404,9 @@
       <c r="H233" s="27"/>
       <c r="I233" s="21"/>
     </row>
-    <row r="234" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A234" s="481"/>
-      <c r="B234" s="492"/>
+    <row r="234" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A234" s="476"/>
+      <c r="B234" s="487"/>
       <c r="C234" s="6" t="s">
         <v>10</v>
       </c>
@@ -78419,9 +78417,9 @@
       <c r="H234" s="27"/>
       <c r="I234" s="21"/>
     </row>
-    <row r="235" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A235" s="481"/>
-      <c r="B235" s="492"/>
+    <row r="235" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A235" s="476"/>
+      <c r="B235" s="487"/>
       <c r="C235" s="6" t="s">
         <v>12</v>
       </c>
@@ -78432,8 +78430,8 @@
       <c r="H235" s="27"/>
       <c r="I235" s="28"/>
     </row>
-    <row r="236" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="481"/>
+    <row r="236" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="476"/>
       <c r="B236" s="64" t="s">
         <v>17</v>
       </c>
@@ -78447,9 +78445,9 @@
       <c r="H236" s="72"/>
       <c r="I236" s="67"/>
     </row>
-    <row r="237" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="481"/>
-      <c r="B237" s="498" t="s">
+    <row r="237" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="476"/>
+      <c r="B237" s="491" t="s">
         <v>2</v>
       </c>
       <c r="C237" s="43" t="s">
@@ -78462,9 +78460,9 @@
       <c r="H237" s="45"/>
       <c r="I237" s="46"/>
     </row>
-    <row r="238" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A238" s="481"/>
-      <c r="B238" s="476"/>
+    <row r="238" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A238" s="476"/>
+      <c r="B238" s="492"/>
       <c r="C238" s="35" t="s">
         <v>16</v>
       </c>
@@ -78475,9 +78473,9 @@
       <c r="H238" s="37"/>
       <c r="I238" s="38"/>
     </row>
-    <row r="239" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A239" s="481"/>
-      <c r="B239" s="499"/>
+    <row r="239" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A239" s="476"/>
+      <c r="B239" s="493"/>
       <c r="C239" s="35" t="s">
         <v>3</v>
       </c>
@@ -78488,9 +78486,9 @@
       <c r="H239" s="37"/>
       <c r="I239" s="38"/>
     </row>
-    <row r="240" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A240" s="481"/>
-      <c r="B240" s="499"/>
+    <row r="240" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A240" s="476"/>
+      <c r="B240" s="493"/>
       <c r="C240" s="35" t="s">
         <v>4</v>
       </c>
@@ -78501,9 +78499,9 @@
       <c r="H240" s="37"/>
       <c r="I240" s="38"/>
     </row>
-    <row r="241" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A241" s="481"/>
-      <c r="B241" s="499"/>
+    <row r="241" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A241" s="476"/>
+      <c r="B241" s="493"/>
       <c r="C241" s="35" t="s">
         <v>5</v>
       </c>
@@ -78514,9 +78512,9 @@
       <c r="H241" s="37"/>
       <c r="I241" s="38"/>
     </row>
-    <row r="242" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A242" s="481"/>
-      <c r="B242" s="499"/>
+    <row r="242" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A242" s="476"/>
+      <c r="B242" s="493"/>
       <c r="C242" s="35" t="s">
         <v>6</v>
       </c>
@@ -78527,9 +78525,9 @@
       <c r="H242" s="37"/>
       <c r="I242" s="38"/>
     </row>
-    <row r="243" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A243" s="481"/>
-      <c r="B243" s="500"/>
+    <row r="243" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A243" s="476"/>
+      <c r="B243" s="494"/>
       <c r="C243" s="39" t="s">
         <v>7</v>
       </c>
@@ -78540,9 +78538,9 @@
       <c r="H243" s="41"/>
       <c r="I243" s="42"/>
     </row>
-    <row r="244" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A244" s="481"/>
-      <c r="B244" s="478" t="s">
+    <row r="244" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A244" s="476"/>
+      <c r="B244" s="495" t="s">
         <v>2</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -78555,9 +78553,9 @@
       <c r="H244" s="22"/>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A245" s="481"/>
-      <c r="B245" s="479"/>
+    <row r="245" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A245" s="476"/>
+      <c r="B245" s="496"/>
       <c r="C245" s="4" t="s">
         <v>21</v>
       </c>
@@ -78568,9 +78566,9 @@
       <c r="H245" s="22"/>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A246" s="481"/>
-      <c r="B246" s="479"/>
+    <row r="246" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A246" s="476"/>
+      <c r="B246" s="496"/>
       <c r="C246" s="4" t="s">
         <v>22</v>
       </c>
@@ -78581,9 +78579,9 @@
       <c r="H246" s="22"/>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A247" s="481"/>
-      <c r="B247" s="479"/>
+    <row r="247" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A247" s="476"/>
+      <c r="B247" s="496"/>
       <c r="C247" s="4" t="s">
         <v>23</v>
       </c>
@@ -78594,9 +78592,9 @@
       <c r="H247" s="22"/>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A248" s="481"/>
-      <c r="B248" s="479"/>
+    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A248" s="476"/>
+      <c r="B248" s="496"/>
       <c r="C248" s="4" t="s">
         <v>24</v>
       </c>
@@ -78607,9 +78605,9 @@
       <c r="H248" s="22"/>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="482"/>
-      <c r="B249" s="479"/>
+    <row r="249" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="477"/>
+      <c r="B249" s="496"/>
       <c r="C249" s="4" t="s">
         <v>25</v>
       </c>
@@ -78620,11 +78618,11 @@
       <c r="H249" s="22"/>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="493" t="s">
+    <row r="250" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="488" t="s">
         <v>34</v>
       </c>
-      <c r="B250" s="475" t="s">
+      <c r="B250" s="500" t="s">
         <v>8</v>
       </c>
       <c r="C250" s="31" t="s">
@@ -78637,9 +78635,9 @@
       <c r="H250" s="33"/>
       <c r="I250" s="34"/>
     </row>
-    <row r="251" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A251" s="494"/>
-      <c r="B251" s="476"/>
+    <row r="251" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A251" s="489"/>
+      <c r="B251" s="492"/>
       <c r="C251" s="35" t="s">
         <v>16</v>
       </c>
@@ -78650,9 +78648,9 @@
       <c r="H251" s="37"/>
       <c r="I251" s="38"/>
     </row>
-    <row r="252" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A252" s="494"/>
-      <c r="B252" s="476"/>
+    <row r="252" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A252" s="489"/>
+      <c r="B252" s="492"/>
       <c r="C252" s="35" t="s">
         <v>3</v>
       </c>
@@ -78663,9 +78661,9 @@
       <c r="H252" s="37"/>
       <c r="I252" s="38"/>
     </row>
-    <row r="253" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A253" s="494"/>
-      <c r="B253" s="476"/>
+    <row r="253" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A253" s="489"/>
+      <c r="B253" s="492"/>
       <c r="C253" s="35" t="s">
         <v>4</v>
       </c>
@@ -78676,9 +78674,9 @@
       <c r="H253" s="37"/>
       <c r="I253" s="38"/>
     </row>
-    <row r="254" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A254" s="494"/>
-      <c r="B254" s="476"/>
+    <row r="254" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A254" s="489"/>
+      <c r="B254" s="492"/>
       <c r="C254" s="35" t="s">
         <v>5</v>
       </c>
@@ -78689,9 +78687,9 @@
       <c r="H254" s="37"/>
       <c r="I254" s="38"/>
     </row>
-    <row r="255" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A255" s="494"/>
-      <c r="B255" s="476"/>
+    <row r="255" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A255" s="489"/>
+      <c r="B255" s="492"/>
       <c r="C255" s="35" t="s">
         <v>6</v>
       </c>
@@ -78702,9 +78700,9 @@
       <c r="H255" s="37"/>
       <c r="I255" s="38"/>
     </row>
-    <row r="256" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A256" s="494"/>
-      <c r="B256" s="477"/>
+    <row r="256" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A256" s="489"/>
+      <c r="B256" s="501"/>
       <c r="C256" s="39" t="s">
         <v>7</v>
       </c>
@@ -78715,9 +78713,9 @@
       <c r="H256" s="41"/>
       <c r="I256" s="42"/>
     </row>
-    <row r="257" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A257" s="494"/>
-      <c r="B257" s="478" t="s">
+    <row r="257" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A257" s="489"/>
+      <c r="B257" s="495" t="s">
         <v>8</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -78730,9 +78728,9 @@
       <c r="H257" s="22"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A258" s="494"/>
-      <c r="B258" s="479"/>
+    <row r="258" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A258" s="489"/>
+      <c r="B258" s="496"/>
       <c r="C258" s="4" t="s">
         <v>21</v>
       </c>
@@ -78743,9 +78741,9 @@
       <c r="H258" s="22"/>
       <c r="I258" s="10"/>
     </row>
-    <row r="259" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A259" s="494"/>
-      <c r="B259" s="479"/>
+    <row r="259" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A259" s="489"/>
+      <c r="B259" s="496"/>
       <c r="C259" s="4" t="s">
         <v>22</v>
       </c>
@@ -78756,9 +78754,9 @@
       <c r="H259" s="22"/>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A260" s="494"/>
-      <c r="B260" s="479"/>
+    <row r="260" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A260" s="489"/>
+      <c r="B260" s="496"/>
       <c r="C260" s="4" t="s">
         <v>23</v>
       </c>
@@ -78769,9 +78767,9 @@
       <c r="H260" s="22"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A261" s="494"/>
-      <c r="B261" s="479"/>
+    <row r="261" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A261" s="489"/>
+      <c r="B261" s="496"/>
       <c r="C261" s="4" t="s">
         <v>24</v>
       </c>
@@ -78782,9 +78780,9 @@
       <c r="H261" s="22"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A262" s="494"/>
-      <c r="B262" s="479"/>
+    <row r="262" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A262" s="489"/>
+      <c r="B262" s="496"/>
       <c r="C262" s="4" t="s">
         <v>25</v>
       </c>
@@ -78795,9 +78793,9 @@
       <c r="H262" s="22"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A263" s="494"/>
-      <c r="B263" s="496" t="s">
+    <row r="263" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A263" s="489"/>
+      <c r="B263" s="497" t="s">
         <v>13</v>
       </c>
       <c r="C263" s="11" t="s">
@@ -78810,9 +78808,9 @@
       <c r="H263" s="23"/>
       <c r="I263" s="12"/>
     </row>
-    <row r="264" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A264" s="494"/>
-      <c r="B264" s="497"/>
+    <row r="264" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A264" s="489"/>
+      <c r="B264" s="498"/>
       <c r="C264" s="5" t="s">
         <v>9</v>
       </c>
@@ -78823,9 +78821,9 @@
       <c r="H264" s="24"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A265" s="494"/>
-      <c r="B265" s="497"/>
+    <row r="265" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A265" s="489"/>
+      <c r="B265" s="498"/>
       <c r="C265" s="5" t="s">
         <v>10</v>
       </c>
@@ -78836,9 +78834,9 @@
       <c r="H265" s="24"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A266" s="494"/>
-      <c r="B266" s="497"/>
+    <row r="266" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A266" s="489"/>
+      <c r="B266" s="498"/>
       <c r="C266" s="5" t="s">
         <v>12</v>
       </c>
@@ -78849,8 +78847,8 @@
       <c r="H266" s="24"/>
       <c r="I266" s="29"/>
     </row>
-    <row r="267" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="494"/>
+    <row r="267" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="489"/>
       <c r="B267" s="47" t="s">
         <v>17</v>
       </c>
@@ -78864,9 +78862,9 @@
       <c r="H267" s="50"/>
       <c r="I267" s="51"/>
     </row>
-    <row r="268" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="494"/>
-      <c r="B268" s="483" t="s">
+    <row r="268" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="489"/>
+      <c r="B268" s="478" t="s">
         <v>2</v>
       </c>
       <c r="C268" s="52" t="s">
@@ -78879,9 +78877,9 @@
       <c r="H268" s="68"/>
       <c r="I268" s="54"/>
     </row>
-    <row r="269" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A269" s="494"/>
-      <c r="B269" s="484"/>
+    <row r="269" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A269" s="489"/>
+      <c r="B269" s="479"/>
       <c r="C269" s="55" t="s">
         <v>16</v>
       </c>
@@ -78892,9 +78890,9 @@
       <c r="H269" s="69"/>
       <c r="I269" s="57"/>
     </row>
-    <row r="270" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A270" s="494"/>
-      <c r="B270" s="485"/>
+    <row r="270" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A270" s="489"/>
+      <c r="B270" s="480"/>
       <c r="C270" s="55" t="s">
         <v>3</v>
       </c>
@@ -78905,9 +78903,9 @@
       <c r="H270" s="69"/>
       <c r="I270" s="57"/>
     </row>
-    <row r="271" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A271" s="494"/>
-      <c r="B271" s="485"/>
+    <row r="271" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A271" s="489"/>
+      <c r="B271" s="480"/>
       <c r="C271" s="55" t="s">
         <v>4</v>
       </c>
@@ -78918,9 +78916,9 @@
       <c r="H271" s="69"/>
       <c r="I271" s="57"/>
     </row>
-    <row r="272" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A272" s="494"/>
-      <c r="B272" s="485"/>
+    <row r="272" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A272" s="489"/>
+      <c r="B272" s="480"/>
       <c r="C272" s="55" t="s">
         <v>5</v>
       </c>
@@ -78931,9 +78929,9 @@
       <c r="H272" s="69"/>
       <c r="I272" s="57"/>
     </row>
-    <row r="273" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A273" s="494"/>
-      <c r="B273" s="485"/>
+    <row r="273" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A273" s="489"/>
+      <c r="B273" s="480"/>
       <c r="C273" s="55" t="s">
         <v>6</v>
       </c>
@@ -78944,9 +78942,9 @@
       <c r="H273" s="69"/>
       <c r="I273" s="57"/>
     </row>
-    <row r="274" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A274" s="494"/>
-      <c r="B274" s="486"/>
+    <row r="274" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A274" s="489"/>
+      <c r="B274" s="481"/>
       <c r="C274" s="58" t="s">
         <v>7</v>
       </c>
@@ -78957,9 +78955,9 @@
       <c r="H274" s="70"/>
       <c r="I274" s="60"/>
     </row>
-    <row r="275" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A275" s="494"/>
-      <c r="B275" s="487" t="s">
+    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A275" s="489"/>
+      <c r="B275" s="482" t="s">
         <v>2</v>
       </c>
       <c r="C275" s="7" t="s">
@@ -78972,9 +78970,9 @@
       <c r="H275" s="25"/>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A276" s="494"/>
-      <c r="B276" s="488"/>
+    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A276" s="489"/>
+      <c r="B276" s="483"/>
       <c r="C276" s="7" t="s">
         <v>21</v>
       </c>
@@ -78985,9 +78983,9 @@
       <c r="H276" s="25"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A277" s="494"/>
-      <c r="B277" s="488"/>
+    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A277" s="489"/>
+      <c r="B277" s="483"/>
       <c r="C277" s="7" t="s">
         <v>22</v>
       </c>
@@ -78998,9 +78996,9 @@
       <c r="H277" s="25"/>
       <c r="I277" s="17"/>
     </row>
-    <row r="278" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A278" s="494"/>
-      <c r="B278" s="488"/>
+    <row r="278" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A278" s="489"/>
+      <c r="B278" s="483"/>
       <c r="C278" s="7" t="s">
         <v>23</v>
       </c>
@@ -79011,9 +79009,9 @@
       <c r="H278" s="25"/>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A279" s="494"/>
-      <c r="B279" s="488"/>
+    <row r="279" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A279" s="489"/>
+      <c r="B279" s="483"/>
       <c r="C279" s="7" t="s">
         <v>24</v>
       </c>
@@ -79024,9 +79022,9 @@
       <c r="H279" s="25"/>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="13.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="495"/>
-      <c r="B280" s="488"/>
+    <row r="280" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="490"/>
+      <c r="B280" s="483"/>
       <c r="C280" s="7" t="s">
         <v>25</v>
       </c>
@@ -79037,11 +79035,11 @@
       <c r="H280" s="25"/>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="13.3" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="480" t="s">
+    <row r="281" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="475" t="s">
         <v>27</v>
       </c>
-      <c r="B281" s="489" t="s">
+      <c r="B281" s="484" t="s">
         <v>8</v>
       </c>
       <c r="C281" s="61" t="s">
@@ -79054,9 +79052,9 @@
       <c r="H281" s="71"/>
       <c r="I281" s="63"/>
     </row>
-    <row r="282" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A282" s="481"/>
-      <c r="B282" s="484"/>
+    <row r="282" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A282" s="476"/>
+      <c r="B282" s="479"/>
       <c r="C282" s="55" t="s">
         <v>16</v>
       </c>
@@ -79067,9 +79065,9 @@
       <c r="H282" s="69"/>
       <c r="I282" s="57"/>
     </row>
-    <row r="283" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A283" s="481"/>
-      <c r="B283" s="484"/>
+    <row r="283" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A283" s="476"/>
+      <c r="B283" s="479"/>
       <c r="C283" s="55" t="s">
         <v>3</v>
       </c>
@@ -79080,9 +79078,9 @@
       <c r="H283" s="69"/>
       <c r="I283" s="57"/>
     </row>
-    <row r="284" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A284" s="481"/>
-      <c r="B284" s="484"/>
+    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A284" s="476"/>
+      <c r="B284" s="479"/>
       <c r="C284" s="55" t="s">
         <v>4</v>
       </c>
@@ -79093,9 +79091,9 @@
       <c r="H284" s="69"/>
       <c r="I284" s="57"/>
     </row>
-    <row r="285" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A285" s="481"/>
-      <c r="B285" s="484"/>
+    <row r="285" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A285" s="476"/>
+      <c r="B285" s="479"/>
       <c r="C285" s="55" t="s">
         <v>5</v>
       </c>
@@ -79106,9 +79104,9 @@
       <c r="H285" s="69"/>
       <c r="I285" s="57"/>
     </row>
-    <row r="286" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A286" s="481"/>
-      <c r="B286" s="484"/>
+    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A286" s="476"/>
+      <c r="B286" s="479"/>
       <c r="C286" s="55" t="s">
         <v>6</v>
       </c>
@@ -79119,9 +79117,9 @@
       <c r="H286" s="69"/>
       <c r="I286" s="57"/>
     </row>
-    <row r="287" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A287" s="481"/>
-      <c r="B287" s="490"/>
+    <row r="287" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A287" s="476"/>
+      <c r="B287" s="485"/>
       <c r="C287" s="58" t="s">
         <v>7</v>
       </c>
@@ -79132,9 +79130,9 @@
       <c r="H287" s="70"/>
       <c r="I287" s="60"/>
     </row>
-    <row r="288" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A288" s="481"/>
-      <c r="B288" s="487" t="s">
+    <row r="288" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A288" s="476"/>
+      <c r="B288" s="482" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="7" t="s">
@@ -79147,9 +79145,9 @@
       <c r="H288" s="25"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A289" s="481"/>
-      <c r="B289" s="488"/>
+    <row r="289" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A289" s="476"/>
+      <c r="B289" s="483"/>
       <c r="C289" s="7" t="s">
         <v>21</v>
       </c>
@@ -79160,9 +79158,9 @@
       <c r="H289" s="25"/>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A290" s="481"/>
-      <c r="B290" s="488"/>
+    <row r="290" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A290" s="476"/>
+      <c r="B290" s="483"/>
       <c r="C290" s="7" t="s">
         <v>22</v>
       </c>
@@ -79173,9 +79171,9 @@
       <c r="H290" s="25"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A291" s="481"/>
-      <c r="B291" s="488"/>
+    <row r="291" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A291" s="476"/>
+      <c r="B291" s="483"/>
       <c r="C291" s="7" t="s">
         <v>23</v>
       </c>
@@ -79186,9 +79184,9 @@
       <c r="H291" s="25"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A292" s="481"/>
-      <c r="B292" s="488"/>
+    <row r="292" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A292" s="476"/>
+      <c r="B292" s="483"/>
       <c r="C292" s="7" t="s">
         <v>24</v>
       </c>
@@ -79199,9 +79197,9 @@
       <c r="H292" s="25"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A293" s="481"/>
-      <c r="B293" s="488"/>
+    <row r="293" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A293" s="476"/>
+      <c r="B293" s="483"/>
       <c r="C293" s="7" t="s">
         <v>25</v>
       </c>
@@ -79212,9 +79210,9 @@
       <c r="H293" s="25"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A294" s="481"/>
-      <c r="B294" s="491" t="s">
+    <row r="294" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A294" s="476"/>
+      <c r="B294" s="486" t="s">
         <v>13</v>
       </c>
       <c r="C294" s="18" t="s">
@@ -79227,9 +79225,9 @@
       <c r="H294" s="26"/>
       <c r="I294" s="19"/>
     </row>
-    <row r="295" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A295" s="481"/>
-      <c r="B295" s="492"/>
+    <row r="295" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A295" s="476"/>
+      <c r="B295" s="487"/>
       <c r="C295" s="6" t="s">
         <v>9</v>
       </c>
@@ -79240,9 +79238,9 @@
       <c r="H295" s="27"/>
       <c r="I295" s="21"/>
     </row>
-    <row r="296" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A296" s="481"/>
-      <c r="B296" s="492"/>
+    <row r="296" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A296" s="476"/>
+      <c r="B296" s="487"/>
       <c r="C296" s="6" t="s">
         <v>10</v>
       </c>
@@ -79253,9 +79251,9 @@
       <c r="H296" s="27"/>
       <c r="I296" s="21"/>
     </row>
-    <row r="297" spans="1:9" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A297" s="481"/>
-      <c r="B297" s="492"/>
+    <row r="297" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A297" s="476"/>
+      <c r="B297" s="487"/>
       <c r="C297" s="6" t="s">
         <v>12</v>
       </c>
@@ -79266,8 +79264,8 @@
       <c r="H297" s="27"/>
       <c r="I297" s="28"/>
     </row>
-    <row r="298" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="481"/>
+    <row r="298" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="476"/>
       <c r="B298" s="64" t="s">
         <v>17</v>
       </c>
@@ -79281,75 +79279,70 @@
       <c r="H298" s="72"/>
       <c r="I298" s="67"/>
     </row>
-    <row r="299" spans="1:9" ht="12.9" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="481"/>
+    <row r="299" spans="1:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="476"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="481"/>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="476"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="481"/>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="476"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A302" s="481"/>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="476"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="481"/>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="476"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="481"/>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="476"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="481"/>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="476"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="481"/>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="476"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="481"/>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="476"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="481"/>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="476"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="481"/>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="476"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="481"/>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="476"/>
     </row>
-    <row r="311" spans="1:1" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="482"/>
+    <row r="311" spans="1:1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="477"/>
     </row>
-    <row r="312" spans="1:1" ht="12.9" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="312" spans="1:1" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A95:A125"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A64:A94"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A3:A32"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A33:A63"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B250:B256"/>
+    <mergeCell ref="B257:B262"/>
+    <mergeCell ref="A281:A311"/>
+    <mergeCell ref="B268:B274"/>
+    <mergeCell ref="B275:B280"/>
+    <mergeCell ref="B281:B287"/>
+    <mergeCell ref="B288:B293"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A250:A280"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="B188:B194"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="A219:A249"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="B219:B225"/>
+    <mergeCell ref="B226:B231"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="A188:A218"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B237:B243"/>
+    <mergeCell ref="B244:B249"/>
     <mergeCell ref="B126:B132"/>
     <mergeCell ref="B133:B138"/>
     <mergeCell ref="A157:A187"/>
@@ -79362,28 +79355,33 @@
     <mergeCell ref="B139:B142"/>
     <mergeCell ref="B175:B181"/>
     <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B194"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="A219:A249"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="B219:B225"/>
-    <mergeCell ref="B226:B231"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="A188:A218"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B237:B243"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="B250:B256"/>
-    <mergeCell ref="B257:B262"/>
-    <mergeCell ref="A281:A311"/>
-    <mergeCell ref="B268:B274"/>
-    <mergeCell ref="B275:B280"/>
-    <mergeCell ref="B281:B287"/>
-    <mergeCell ref="B288:B293"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A250:A280"/>
-    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A33:A63"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A3:A32"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A95:A125"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A64:A94"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B71:B76"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
